--- a/data/player_contract_data.xlsx
+++ b/data/player_contract_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c6325700e18a419/Documents/mads/milestoneOne593/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c6325700e18a419/Documents/mads/team24_milestone1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{5FC8BF97-A0F5-46D8-B7B3-2AE61872BF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54357CE1-F4E9-467C-BD67-3F5786CD6923}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{5FC8BF97-A0F5-46D8-B7B3-2AE61872BF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8414C56D-D96B-49CD-B97D-A0AFD2FEAE63}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="13403" windowWidth="21795" windowHeight="12975" xr2:uid="{28175B69-A54C-4183-BF97-D4D771D07AE0}"/>
   </bookViews>
@@ -3041,13 +3041,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3366,6 +3365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C8177E-62D6-4EB9-9C53-CE7EDFBA1310}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3374,7 +3374,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="21.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -3409,7 +3409,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -3440,11 +3440,11 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
@@ -3466,11 +3466,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
@@ -3492,11 +3492,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
@@ -3524,11 +3524,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
@@ -3553,11 +3553,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
@@ -3576,11 +3576,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
@@ -3605,11 +3605,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
@@ -3637,11 +3637,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
@@ -3666,11 +3666,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">
@@ -3686,11 +3686,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12" t="s">
@@ -3709,11 +3709,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
@@ -3735,11 +3735,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
@@ -3755,11 +3755,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
@@ -3781,11 +3781,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
       <c r="C16" t="s">
@@ -3807,11 +3807,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17" t="s">
@@ -3839,11 +3839,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>51</v>
       </c>
       <c r="C18" t="s">
@@ -3868,11 +3868,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -3897,11 +3897,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="s">
@@ -3926,11 +3926,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
       <c r="C21" t="s">
@@ -3946,11 +3946,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>62</v>
       </c>
       <c r="C22" t="s">
@@ -3969,11 +3969,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>65</v>
       </c>
       <c r="C23" t="s">
@@ -3989,11 +3989,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>68</v>
       </c>
       <c r="C24" t="s">
@@ -4015,11 +4015,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>70</v>
       </c>
       <c r="C25" t="s">
@@ -4038,11 +4038,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>73</v>
       </c>
       <c r="C26" t="s">
@@ -4070,11 +4070,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>75</v>
       </c>
       <c r="C27" t="s">
@@ -4102,11 +4102,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>77</v>
       </c>
       <c r="C28" t="s">
@@ -4128,11 +4128,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>79</v>
       </c>
       <c r="C29" t="s">
@@ -4154,11 +4154,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>82</v>
       </c>
       <c r="C30" t="s">
@@ -4174,11 +4174,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>84</v>
       </c>
       <c r="C31" t="s">
@@ -4206,11 +4206,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>86</v>
       </c>
       <c r="C32" t="s">
@@ -4238,11 +4238,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>89</v>
       </c>
       <c r="C33" t="s">
@@ -4270,11 +4270,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>92</v>
       </c>
       <c r="C34" t="s">
@@ -4293,11 +4293,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>94</v>
       </c>
       <c r="C35" t="s">
@@ -4316,11 +4316,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>96</v>
       </c>
       <c r="C36" t="s">
@@ -4345,11 +4345,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>99</v>
       </c>
       <c r="C37" t="s">
@@ -4374,11 +4374,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>101</v>
       </c>
       <c r="C38" t="s">
@@ -4400,11 +4400,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>103</v>
       </c>
       <c r="C39" t="s">
@@ -4426,11 +4426,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>106</v>
       </c>
       <c r="C40" t="s">
@@ -4452,11 +4452,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>108</v>
       </c>
       <c r="C41" t="s">
@@ -4478,11 +4478,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>110</v>
       </c>
       <c r="C42" t="s">
@@ -4504,11 +4504,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>113</v>
       </c>
       <c r="C43" t="s">
@@ -4539,11 +4539,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>115</v>
       </c>
       <c r="C44" t="s">
@@ -4559,11 +4559,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>118</v>
       </c>
       <c r="C45" t="s">
@@ -4582,11 +4582,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>120</v>
       </c>
       <c r="C46" t="s">
@@ -4614,11 +4614,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>122</v>
       </c>
       <c r="C47" t="s">
@@ -4634,11 +4634,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>124</v>
       </c>
       <c r="C48" t="s">
@@ -4660,11 +4660,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>126</v>
       </c>
       <c r="C49" t="s">
@@ -4680,11 +4680,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>128</v>
       </c>
       <c r="C50" t="s">
@@ -4706,11 +4706,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>131</v>
       </c>
       <c r="C51" t="s">
@@ -4738,11 +4738,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>133</v>
       </c>
       <c r="C52" t="s">
@@ -4767,11 +4767,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>136</v>
       </c>
       <c r="C53" t="s">
@@ -4793,11 +4793,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>138</v>
       </c>
       <c r="C54" t="s">
@@ -4822,11 +4822,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>140</v>
       </c>
       <c r="C55" t="s">
@@ -4848,11 +4848,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>142</v>
       </c>
       <c r="C56" t="s">
@@ -4877,11 +4877,11 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>144</v>
       </c>
       <c r="C57" t="s">
@@ -4906,11 +4906,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>146</v>
       </c>
       <c r="C58" t="s">
@@ -4932,11 +4932,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>149</v>
       </c>
       <c r="C59" t="s">
@@ -4955,11 +4955,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>151</v>
       </c>
       <c r="C60" t="s">
@@ -4975,11 +4975,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>153</v>
       </c>
       <c r="C61" t="s">
@@ -5004,11 +5004,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>155</v>
       </c>
       <c r="C62" t="s">
@@ -5030,11 +5030,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>157</v>
       </c>
       <c r="C63" t="s">
@@ -5059,11 +5059,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" hidden="1">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>160</v>
       </c>
       <c r="C64" t="s">
@@ -5085,11 +5085,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
         <v>162</v>
       </c>
       <c r="C65" t="s">
@@ -5111,11 +5111,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
         <v>164</v>
       </c>
       <c r="C66" t="s">
@@ -5140,11 +5140,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
         <v>166</v>
       </c>
       <c r="C67" t="s">
@@ -5163,11 +5163,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
         <v>168</v>
       </c>
       <c r="C68" t="s">
@@ -5192,11 +5192,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s">
         <v>170</v>
       </c>
       <c r="C69" t="s">
@@ -5218,11 +5218,11 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s">
         <v>172</v>
       </c>
       <c r="C70" t="s">
@@ -5241,11 +5241,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" hidden="1">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s">
         <v>174</v>
       </c>
       <c r="C71" t="s">
@@ -5267,11 +5267,11 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" hidden="1">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s">
         <v>176</v>
       </c>
       <c r="C72" t="s">
@@ -5290,11 +5290,11 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s">
         <v>178</v>
       </c>
       <c r="C73" t="s">
@@ -5313,11 +5313,11 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s">
         <v>180</v>
       </c>
       <c r="C74" t="s">
@@ -5336,11 +5336,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" t="s">
         <v>182</v>
       </c>
       <c r="C75" t="s">
@@ -5356,11 +5356,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" hidden="1">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s">
         <v>184</v>
       </c>
       <c r="C76" t="s">
@@ -5385,11 +5385,11 @@
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" hidden="1">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s">
         <v>186</v>
       </c>
       <c r="C77" t="s">
@@ -5414,11 +5414,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" hidden="1">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" t="s">
         <v>189</v>
       </c>
       <c r="C78" t="s">
@@ -5440,11 +5440,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" hidden="1">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" t="s">
         <v>191</v>
       </c>
       <c r="C79" t="s">
@@ -5463,11 +5463,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" hidden="1">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" t="s">
         <v>194</v>
       </c>
       <c r="C80" t="s">
@@ -5483,11 +5483,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" hidden="1">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" t="s">
         <v>196</v>
       </c>
       <c r="C81" t="s">
@@ -5512,11 +5512,11 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" t="s">
         <v>198</v>
       </c>
       <c r="C82" t="s">
@@ -5532,11 +5532,11 @@
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s">
         <v>200</v>
       </c>
       <c r="C83" t="s">
@@ -5555,11 +5555,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s">
         <v>202</v>
       </c>
       <c r="C84" t="s">
@@ -5581,11 +5581,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" hidden="1">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" t="s">
         <v>204</v>
       </c>
       <c r="C85" t="s">
@@ -5610,11 +5610,11 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s">
         <v>206</v>
       </c>
       <c r="C86" t="s">
@@ -5633,11 +5633,11 @@
         <v>207</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" hidden="1">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" t="s">
         <v>208</v>
       </c>
       <c r="C87" t="s">
@@ -5653,11 +5653,11 @@
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" hidden="1">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>210</v>
       </c>
       <c r="C88" t="s">
@@ -5679,11 +5679,11 @@
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" hidden="1">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
         <v>212</v>
       </c>
       <c r="C89" t="s">
@@ -5702,11 +5702,11 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" hidden="1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>214</v>
       </c>
       <c r="C90" t="s">
@@ -5734,11 +5734,11 @@
         <v>215</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" hidden="1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" t="s">
         <v>216</v>
       </c>
       <c r="C91" t="s">
@@ -5760,11 +5760,11 @@
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" hidden="1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" t="s">
         <v>218</v>
       </c>
       <c r="C92" t="s">
@@ -5786,11 +5786,11 @@
         <v>219</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" hidden="1">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" t="s">
         <v>220</v>
       </c>
       <c r="C93" t="s">
@@ -5809,11 +5809,11 @@
         <v>221</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" hidden="1">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" t="s">
         <v>222</v>
       </c>
       <c r="C94" t="s">
@@ -5832,11 +5832,11 @@
         <v>224</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" hidden="1">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" t="s">
         <v>225</v>
       </c>
       <c r="C95" t="s">
@@ -5858,11 +5858,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" hidden="1">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" t="s">
         <v>227</v>
       </c>
       <c r="C96" t="s">
@@ -5881,11 +5881,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" hidden="1">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" t="s">
         <v>229</v>
       </c>
       <c r="C97" t="s">
@@ -5904,11 +5904,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" hidden="1">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" t="s">
         <v>231</v>
       </c>
       <c r="C98" t="s">
@@ -5924,11 +5924,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" hidden="1">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" t="s">
         <v>233</v>
       </c>
       <c r="C99" t="s">
@@ -5950,11 +5950,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" hidden="1">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" t="s">
         <v>235</v>
       </c>
       <c r="C100" t="s">
@@ -5973,11 +5973,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" hidden="1">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" t="s">
         <v>237</v>
       </c>
       <c r="C101" t="s">
@@ -5993,11 +5993,11 @@
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" hidden="1">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" t="s">
         <v>239</v>
       </c>
       <c r="C102" t="s">
@@ -6019,11 +6019,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" hidden="1">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" t="s">
         <v>241</v>
       </c>
       <c r="C103" t="s">
@@ -6045,11 +6045,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" hidden="1">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" t="s">
         <v>243</v>
       </c>
       <c r="C104" t="s">
@@ -6068,11 +6068,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" hidden="1">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" t="s">
         <v>245</v>
       </c>
       <c r="C105" t="s">
@@ -6094,11 +6094,11 @@
         <v>246</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" hidden="1">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" t="s">
         <v>247</v>
       </c>
       <c r="C106" t="s">
@@ -6120,11 +6120,11 @@
         <v>248</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" hidden="1">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" t="s">
         <v>249</v>
       </c>
       <c r="C107" t="s">
@@ -6146,11 +6146,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" hidden="1">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" t="s">
         <v>251</v>
       </c>
       <c r="C108" t="s">
@@ -6166,11 +6166,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" hidden="1">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" t="s">
         <v>253</v>
       </c>
       <c r="C109" t="s">
@@ -6189,11 +6189,11 @@
         <v>254</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" hidden="1">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" t="s">
         <v>255</v>
       </c>
       <c r="C110" t="s">
@@ -6218,11 +6218,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" hidden="1">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" t="s">
         <v>257</v>
       </c>
       <c r="C111" t="s">
@@ -6241,11 +6241,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" hidden="1">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" t="s">
         <v>259</v>
       </c>
       <c r="C112" t="s">
@@ -6264,11 +6264,11 @@
         <v>260</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" hidden="1">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" t="s">
         <v>261</v>
       </c>
       <c r="C113" t="s">
@@ -6293,11 +6293,11 @@
         <v>262</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" hidden="1">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" t="s">
         <v>263</v>
       </c>
       <c r="C114" t="s">
@@ -6313,11 +6313,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" hidden="1">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" t="s">
         <v>265</v>
       </c>
       <c r="C115" t="s">
@@ -6339,11 +6339,11 @@
         <v>266</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" hidden="1">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" t="s">
         <v>267</v>
       </c>
       <c r="C116" t="s">
@@ -6359,11 +6359,11 @@
         <v>268</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" hidden="1">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" t="s">
         <v>269</v>
       </c>
       <c r="C117" t="s">
@@ -6394,11 +6394,11 @@
         <v>270</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" hidden="1">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" t="s">
         <v>271</v>
       </c>
       <c r="C118" t="s">
@@ -6420,11 +6420,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" hidden="1">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" t="s">
         <v>273</v>
       </c>
       <c r="C119" t="s">
@@ -6440,11 +6440,11 @@
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" hidden="1">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" t="s">
         <v>275</v>
       </c>
       <c r="C120" t="s">
@@ -6472,11 +6472,11 @@
         <v>276</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" hidden="1">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" t="s">
         <v>277</v>
       </c>
       <c r="C121" t="s">
@@ -6498,11 +6498,11 @@
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" hidden="1">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" t="s">
         <v>279</v>
       </c>
       <c r="C122" t="s">
@@ -6521,11 +6521,11 @@
         <v>280</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" hidden="1">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" t="s">
         <v>281</v>
       </c>
       <c r="C123" t="s">
@@ -6550,11 +6550,11 @@
         <v>282</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" hidden="1">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" t="s">
         <v>283</v>
       </c>
       <c r="C124" t="s">
@@ -6573,11 +6573,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" hidden="1">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" t="s">
         <v>285</v>
       </c>
       <c r="C125" t="s">
@@ -6602,11 +6602,11 @@
         <v>286</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" hidden="1">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" t="s">
         <v>287</v>
       </c>
       <c r="C126" t="s">
@@ -6625,11 +6625,11 @@
         <v>288</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" hidden="1">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" t="s">
         <v>289</v>
       </c>
       <c r="C127" t="s">
@@ -6651,11 +6651,11 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" hidden="1">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" t="s">
         <v>291</v>
       </c>
       <c r="C128" t="s">
@@ -6671,11 +6671,11 @@
         <v>292</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" hidden="1">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" t="s">
         <v>293</v>
       </c>
       <c r="C129" t="s">
@@ -6700,11 +6700,11 @@
         <v>294</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" hidden="1">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" t="s">
         <v>295</v>
       </c>
       <c r="C130" t="s">
@@ -6720,11 +6720,11 @@
         <v>296</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" hidden="1">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" t="s">
         <v>297</v>
       </c>
       <c r="C131" t="s">
@@ -6743,11 +6743,11 @@
         <v>298</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" hidden="1">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" t="s">
         <v>299</v>
       </c>
       <c r="C132" t="s">
@@ -6766,11 +6766,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" hidden="1">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" t="s">
         <v>301</v>
       </c>
       <c r="C133" t="s">
@@ -6795,11 +6795,11 @@
         <v>302</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" hidden="1">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" t="s">
         <v>303</v>
       </c>
       <c r="C134" t="s">
@@ -6824,11 +6824,11 @@
         <v>304</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" hidden="1">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" t="s">
         <v>305</v>
       </c>
       <c r="C135" t="s">
@@ -6847,11 +6847,11 @@
         <v>306</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" hidden="1">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" t="s">
         <v>307</v>
       </c>
       <c r="C136" t="s">
@@ -6873,11 +6873,11 @@
         <v>308</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" hidden="1">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" t="s">
         <v>309</v>
       </c>
       <c r="C137" t="s">
@@ -6893,11 +6893,11 @@
         <v>310</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" hidden="1">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" t="s">
         <v>311</v>
       </c>
       <c r="C138" t="s">
@@ -6913,11 +6913,11 @@
         <v>312</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" hidden="1">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" t="s">
         <v>313</v>
       </c>
       <c r="C139" t="s">
@@ -6939,11 +6939,11 @@
         <v>314</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" hidden="1">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" t="s">
         <v>315</v>
       </c>
       <c r="C140" t="s">
@@ -6965,11 +6965,11 @@
         <v>316</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" hidden="1">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" t="s">
         <v>317</v>
       </c>
       <c r="C141" t="s">
@@ -6991,11 +6991,11 @@
         <v>318</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" hidden="1">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" t="s">
         <v>319</v>
       </c>
       <c r="C142" t="s">
@@ -7014,11 +7014,11 @@
         <v>320</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" hidden="1">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" t="s">
         <v>321</v>
       </c>
       <c r="C143" t="s">
@@ -7034,11 +7034,11 @@
         <v>322</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" hidden="1">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" t="s">
         <v>323</v>
       </c>
       <c r="C144" t="s">
@@ -7057,11 +7057,11 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" hidden="1">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" t="s">
         <v>325</v>
       </c>
       <c r="C145" t="s">
@@ -7077,11 +7077,11 @@
         <v>326</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" hidden="1">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" t="s">
         <v>327</v>
       </c>
       <c r="C146" t="s">
@@ -7103,11 +7103,11 @@
         <v>328</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" hidden="1">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" t="s">
         <v>329</v>
       </c>
       <c r="C147" t="s">
@@ -7126,11 +7126,11 @@
         <v>330</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" hidden="1">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" t="s">
         <v>331</v>
       </c>
       <c r="C148" t="s">
@@ -7149,11 +7149,11 @@
         <v>332</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" hidden="1">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" t="s">
         <v>333</v>
       </c>
       <c r="C149" t="s">
@@ -7184,11 +7184,11 @@
         <v>334</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" hidden="1">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" t="s">
         <v>335</v>
       </c>
       <c r="C150" t="s">
@@ -7213,11 +7213,11 @@
         <v>336</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" hidden="1">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" t="s">
         <v>337</v>
       </c>
       <c r="C151" t="s">
@@ -7242,11 +7242,11 @@
         <v>338</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" hidden="1">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" t="s">
         <v>339</v>
       </c>
       <c r="C152" t="s">
@@ -7265,11 +7265,11 @@
         <v>340</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" hidden="1">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" t="s">
         <v>341</v>
       </c>
       <c r="C153" t="s">
@@ -7291,11 +7291,11 @@
         <v>342</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" hidden="1">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" t="s">
         <v>343</v>
       </c>
       <c r="C154" t="s">
@@ -7317,11 +7317,11 @@
         <v>344</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" hidden="1">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" t="s">
         <v>345</v>
       </c>
       <c r="C155" t="s">
@@ -7337,11 +7337,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" hidden="1">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" t="s">
         <v>347</v>
       </c>
       <c r="C156" t="s">
@@ -7363,11 +7363,11 @@
         <v>348</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" hidden="1">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" t="s">
         <v>349</v>
       </c>
       <c r="C157" t="s">
@@ -7386,11 +7386,11 @@
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" hidden="1">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" t="s">
         <v>351</v>
       </c>
       <c r="C158" t="s">
@@ -7412,11 +7412,11 @@
         <v>352</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" hidden="1">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" t="s">
         <v>353</v>
       </c>
       <c r="C159" t="s">
@@ -7435,11 +7435,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" hidden="1">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" t="s">
         <v>355</v>
       </c>
       <c r="C160" t="s">
@@ -7455,11 +7455,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" hidden="1">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" t="s">
         <v>357</v>
       </c>
       <c r="C161" t="s">
@@ -7478,11 +7478,11 @@
         <v>358</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" hidden="1">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" t="s">
         <v>359</v>
       </c>
       <c r="C162" t="s">
@@ -7501,11 +7501,11 @@
         <v>360</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" hidden="1">
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" t="s">
         <v>361</v>
       </c>
       <c r="C163" t="s">
@@ -7521,11 +7521,11 @@
         <v>362</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" hidden="1">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" t="s">
         <v>363</v>
       </c>
       <c r="C164" t="s">
@@ -7541,11 +7541,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" hidden="1">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" t="s">
         <v>365</v>
       </c>
       <c r="C165" t="s">
@@ -7570,11 +7570,11 @@
         <v>366</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" hidden="1">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" t="s">
         <v>367</v>
       </c>
       <c r="C166" t="s">
@@ -7590,11 +7590,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" hidden="1">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" t="s">
         <v>369</v>
       </c>
       <c r="C167" t="s">
@@ -7613,11 +7613,11 @@
         <v>370</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" hidden="1">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" t="s">
         <v>371</v>
       </c>
       <c r="C168" t="s">
@@ -7633,11 +7633,11 @@
         <v>372</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" hidden="1">
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" t="s">
         <v>373</v>
       </c>
       <c r="C169" t="s">
@@ -7656,11 +7656,11 @@
         <v>374</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" hidden="1">
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" t="s">
         <v>375</v>
       </c>
       <c r="C170" t="s">
@@ -7676,11 +7676,11 @@
         <v>376</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" hidden="1">
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" t="s">
         <v>377</v>
       </c>
       <c r="C171" t="s">
@@ -7702,11 +7702,11 @@
         <v>378</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" hidden="1">
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" t="s">
         <v>379</v>
       </c>
       <c r="C172" t="s">
@@ -7728,11 +7728,11 @@
         <v>380</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" hidden="1">
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" t="s">
         <v>381</v>
       </c>
       <c r="C173" t="s">
@@ -7748,11 +7748,11 @@
         <v>382</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" hidden="1">
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" t="s">
         <v>383</v>
       </c>
       <c r="C174" t="s">
@@ -7768,11 +7768,11 @@
         <v>384</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" hidden="1">
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" t="s">
         <v>385</v>
       </c>
       <c r="C175" t="s">
@@ -7788,11 +7788,11 @@
         <v>386</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" hidden="1">
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" t="s">
         <v>387</v>
       </c>
       <c r="C176" t="s">
@@ -7808,11 +7808,11 @@
         <v>388</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" hidden="1">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" t="s">
         <v>389</v>
       </c>
       <c r="C177" t="s">
@@ -7831,11 +7831,11 @@
         <v>390</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" hidden="1">
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" t="s">
         <v>391</v>
       </c>
       <c r="C178" t="s">
@@ -7860,11 +7860,11 @@
         <v>392</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" hidden="1">
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" t="s">
         <v>393</v>
       </c>
       <c r="C179" t="s">
@@ -7886,11 +7886,11 @@
         <v>394</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" hidden="1">
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" t="s">
         <v>395</v>
       </c>
       <c r="C180" t="s">
@@ -7909,11 +7909,11 @@
         <v>396</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" hidden="1">
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" t="s">
         <v>397</v>
       </c>
       <c r="C181" t="s">
@@ -7932,11 +7932,11 @@
         <v>398</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" hidden="1">
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" t="s">
         <v>399</v>
       </c>
       <c r="C182" t="s">
@@ -7958,11 +7958,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" hidden="1">
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" t="s">
         <v>401</v>
       </c>
       <c r="C183" t="s">
@@ -7978,11 +7978,11 @@
         <v>402</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" hidden="1">
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" t="s">
         <v>403</v>
       </c>
       <c r="C184" t="s">
@@ -8010,11 +8010,11 @@
         <v>404</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" hidden="1">
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" t="s">
         <v>405</v>
       </c>
       <c r="C185" t="s">
@@ -8033,11 +8033,11 @@
         <v>406</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" hidden="1">
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" t="s">
         <v>407</v>
       </c>
       <c r="C186" t="s">
@@ -8062,11 +8062,11 @@
         <v>408</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" hidden="1">
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" t="s">
         <v>409</v>
       </c>
       <c r="C187" t="s">
@@ -8085,11 +8085,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" hidden="1">
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" t="s">
         <v>411</v>
       </c>
       <c r="C188" t="s">
@@ -8105,11 +8105,11 @@
         <v>412</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" hidden="1">
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" t="s">
         <v>413</v>
       </c>
       <c r="C189" t="s">
@@ -8125,11 +8125,11 @@
         <v>414</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" hidden="1">
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" t="s">
         <v>415</v>
       </c>
       <c r="C190" t="s">
@@ -8148,11 +8148,11 @@
         <v>416</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" hidden="1">
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" t="s">
         <v>417</v>
       </c>
       <c r="C191" t="s">
@@ -8177,11 +8177,11 @@
         <v>418</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" hidden="1">
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" t="s">
         <v>419</v>
       </c>
       <c r="C192" t="s">
@@ -8197,11 +8197,11 @@
         <v>420</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" hidden="1">
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" t="s">
         <v>421</v>
       </c>
       <c r="C193" t="s">
@@ -8223,11 +8223,11 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" hidden="1">
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" t="s">
         <v>423</v>
       </c>
       <c r="C194" t="s">
@@ -8249,11 +8249,11 @@
         <v>424</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" hidden="1">
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" t="s">
         <v>425</v>
       </c>
       <c r="C195" t="s">
@@ -8275,11 +8275,11 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" hidden="1">
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" t="s">
         <v>427</v>
       </c>
       <c r="C196" t="s">
@@ -8301,11 +8301,11 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" hidden="1">
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" t="s">
         <v>429</v>
       </c>
       <c r="C197" t="s">
@@ -8327,11 +8327,11 @@
         <v>430</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" hidden="1">
       <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" t="s">
         <v>431</v>
       </c>
       <c r="C198" t="s">
@@ -8350,11 +8350,11 @@
         <v>432</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" hidden="1">
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" t="s">
         <v>433</v>
       </c>
       <c r="C199" t="s">
@@ -8370,11 +8370,11 @@
         <v>434</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" hidden="1">
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" t="s">
         <v>435</v>
       </c>
       <c r="C200" t="s">
@@ -8393,11 +8393,11 @@
         <v>436</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" hidden="1">
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" t="s">
         <v>437</v>
       </c>
       <c r="C201" t="s">
@@ -8422,11 +8422,11 @@
         <v>438</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" hidden="1">
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" t="s">
         <v>439</v>
       </c>
       <c r="C202" t="s">
@@ -8442,11 +8442,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" hidden="1">
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" t="s">
         <v>441</v>
       </c>
       <c r="C203" t="s">
@@ -8462,11 +8462,11 @@
         <v>442</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" hidden="1">
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" t="s">
         <v>443</v>
       </c>
       <c r="C204" t="s">
@@ -8488,11 +8488,11 @@
         <v>444</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" hidden="1">
       <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" t="s">
         <v>445</v>
       </c>
       <c r="C205" t="s">
@@ -8508,11 +8508,11 @@
         <v>446</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" hidden="1">
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" t="s">
         <v>447</v>
       </c>
       <c r="C206" t="s">
@@ -8531,11 +8531,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" hidden="1">
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" t="s">
         <v>449</v>
       </c>
       <c r="C207" t="s">
@@ -8551,11 +8551,11 @@
         <v>450</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" hidden="1">
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" t="s">
         <v>451</v>
       </c>
       <c r="C208" t="s">
@@ -8571,11 +8571,11 @@
         <v>452</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" hidden="1">
       <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" t="s">
         <v>453</v>
       </c>
       <c r="C209" t="s">
@@ -8591,11 +8591,11 @@
         <v>454</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" hidden="1">
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" t="s">
         <v>455</v>
       </c>
       <c r="C210" t="s">
@@ -8611,11 +8611,11 @@
         <v>456</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" hidden="1">
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" t="s">
         <v>457</v>
       </c>
       <c r="C211" t="s">
@@ -8640,11 +8640,11 @@
         <v>458</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" hidden="1">
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" t="s">
         <v>459</v>
       </c>
       <c r="C212" t="s">
@@ -8663,11 +8663,11 @@
         <v>460</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" hidden="1">
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" t="s">
         <v>461</v>
       </c>
       <c r="C213" t="s">
@@ -8683,11 +8683,11 @@
         <v>462</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" hidden="1">
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" t="s">
         <v>463</v>
       </c>
       <c r="C214" t="s">
@@ -8706,11 +8706,11 @@
         <v>464</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" hidden="1">
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" t="s">
         <v>465</v>
       </c>
       <c r="C215" t="s">
@@ -8736,7 +8736,7 @@
       <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" t="s">
         <v>467</v>
       </c>
       <c r="C216" t="s">
@@ -8749,11 +8749,11 @@
         <v>468</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" hidden="1">
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" t="s">
         <v>469</v>
       </c>
       <c r="C217" t="s">
@@ -8775,11 +8775,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" hidden="1">
       <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" t="s">
         <v>471</v>
       </c>
       <c r="C218" t="s">
@@ -8801,11 +8801,11 @@
         <v>472</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" hidden="1">
       <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" t="s">
         <v>473</v>
       </c>
       <c r="C219" t="s">
@@ -8821,11 +8821,11 @@
         <v>474</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" hidden="1">
       <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" t="s">
         <v>475</v>
       </c>
       <c r="C220" t="s">
@@ -8853,11 +8853,11 @@
         <v>476</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" hidden="1">
       <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" t="s">
         <v>477</v>
       </c>
       <c r="C221" t="s">
@@ -8882,11 +8882,11 @@
         <v>478</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" hidden="1">
       <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" t="s">
         <v>479</v>
       </c>
       <c r="C222" t="s">
@@ -8908,11 +8908,11 @@
         <v>480</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" hidden="1">
       <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" t="s">
         <v>481</v>
       </c>
       <c r="C223" t="s">
@@ -8937,11 +8937,11 @@
         <v>482</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" hidden="1">
       <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" t="s">
         <v>483</v>
       </c>
       <c r="C224" t="s">
@@ -8966,11 +8966,11 @@
         <v>484</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" hidden="1">
       <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" t="s">
         <v>485</v>
       </c>
       <c r="C225" t="s">
@@ -8989,11 +8989,11 @@
         <v>486</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" hidden="1">
       <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" t="s">
         <v>487</v>
       </c>
       <c r="C226" t="s">
@@ -9024,11 +9024,11 @@
         <v>488</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" hidden="1">
       <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" t="s">
         <v>489</v>
       </c>
       <c r="C227" t="s">
@@ -9059,11 +9059,11 @@
         <v>490</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" hidden="1">
       <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" t="s">
         <v>491</v>
       </c>
       <c r="C228" t="s">
@@ -9085,11 +9085,11 @@
         <v>492</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" hidden="1">
       <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" t="s">
         <v>493</v>
       </c>
       <c r="C229" t="s">
@@ -9105,11 +9105,11 @@
         <v>494</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" hidden="1">
       <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" t="s">
         <v>495</v>
       </c>
       <c r="C230" t="s">
@@ -9131,11 +9131,11 @@
         <v>496</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" hidden="1">
       <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" t="s">
         <v>497</v>
       </c>
       <c r="C231" t="s">
@@ -9160,11 +9160,11 @@
         <v>498</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" hidden="1">
       <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" t="s">
         <v>499</v>
       </c>
       <c r="C232" t="s">
@@ -9189,11 +9189,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" hidden="1">
       <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" t="s">
         <v>501</v>
       </c>
       <c r="C233" t="s">
@@ -9218,11 +9218,11 @@
         <v>502</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" hidden="1">
       <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" t="s">
         <v>503</v>
       </c>
       <c r="C234" t="s">
@@ -9241,11 +9241,11 @@
         <v>504</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" hidden="1">
       <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" t="s">
         <v>505</v>
       </c>
       <c r="C235" t="s">
@@ -9261,11 +9261,11 @@
         <v>506</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" hidden="1">
       <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" t="s">
         <v>507</v>
       </c>
       <c r="C236" t="s">
@@ -9287,11 +9287,11 @@
         <v>508</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" hidden="1">
       <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" t="s">
         <v>509</v>
       </c>
       <c r="C237" t="s">
@@ -9316,11 +9316,11 @@
         <v>510</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" hidden="1">
       <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" t="s">
         <v>511</v>
       </c>
       <c r="C238" t="s">
@@ -9348,11 +9348,11 @@
         <v>512</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" hidden="1">
       <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" t="s">
         <v>513</v>
       </c>
       <c r="C239" t="s">
@@ -9368,11 +9368,11 @@
         <v>514</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" hidden="1">
       <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" t="s">
         <v>515</v>
       </c>
       <c r="C240" t="s">
@@ -9391,11 +9391,11 @@
         <v>516</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" hidden="1">
       <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" t="s">
         <v>517</v>
       </c>
       <c r="C241" t="s">
@@ -9417,11 +9417,11 @@
         <v>518</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" hidden="1">
       <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" t="s">
         <v>519</v>
       </c>
       <c r="C242" t="s">
@@ -9440,11 +9440,11 @@
         <v>520</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" hidden="1">
       <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" t="s">
         <v>521</v>
       </c>
       <c r="C243" t="s">
@@ -9469,11 +9469,11 @@
         <v>522</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" hidden="1">
       <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" t="s">
         <v>523</v>
       </c>
       <c r="C244" t="s">
@@ -9489,11 +9489,11 @@
         <v>524</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" hidden="1">
       <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" t="s">
         <v>525</v>
       </c>
       <c r="C245" t="s">
@@ -9515,11 +9515,11 @@
         <v>526</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" hidden="1">
       <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" t="s">
         <v>527</v>
       </c>
       <c r="C246" t="s">
@@ -9538,11 +9538,11 @@
         <v>528</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" hidden="1">
       <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" t="s">
         <v>529</v>
       </c>
       <c r="C247" t="s">
@@ -9558,11 +9558,11 @@
         <v>530</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" hidden="1">
       <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" t="s">
         <v>531</v>
       </c>
       <c r="C248" t="s">
@@ -9578,11 +9578,11 @@
         <v>532</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" hidden="1">
       <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" t="s">
         <v>533</v>
       </c>
       <c r="C249" t="s">
@@ -9601,11 +9601,11 @@
         <v>534</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" hidden="1">
       <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" t="s">
         <v>535</v>
       </c>
       <c r="C250" t="s">
@@ -9624,11 +9624,11 @@
         <v>536</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" hidden="1">
       <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" t="s">
         <v>537</v>
       </c>
       <c r="C251" t="s">
@@ -9650,11 +9650,11 @@
         <v>538</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" hidden="1">
       <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" t="s">
         <v>539</v>
       </c>
       <c r="C252" t="s">
@@ -9679,11 +9679,11 @@
         <v>540</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" hidden="1">
       <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" t="s">
         <v>541</v>
       </c>
       <c r="C253" t="s">
@@ -9708,11 +9708,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" hidden="1">
       <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" t="s">
         <v>543</v>
       </c>
       <c r="C254" t="s">
@@ -9740,11 +9740,11 @@
         <v>544</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" hidden="1">
       <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" t="s">
         <v>545</v>
       </c>
       <c r="C255" t="s">
@@ -9763,11 +9763,11 @@
         <v>546</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" hidden="1">
       <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" t="s">
         <v>547</v>
       </c>
       <c r="C256" t="s">
@@ -9786,11 +9786,11 @@
         <v>548</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" hidden="1">
       <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" t="s">
         <v>549</v>
       </c>
       <c r="C257" t="s">
@@ -9812,11 +9812,11 @@
         <v>550</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" hidden="1">
       <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" t="s">
         <v>551</v>
       </c>
       <c r="C258" t="s">
@@ -9832,11 +9832,11 @@
         <v>552</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" hidden="1">
       <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" t="s">
         <v>553</v>
       </c>
       <c r="C259" t="s">
@@ -9861,11 +9861,11 @@
         <v>554</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" hidden="1">
       <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" t="s">
         <v>555</v>
       </c>
       <c r="C260" t="s">
@@ -9884,11 +9884,11 @@
         <v>556</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" hidden="1">
       <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" t="s">
         <v>557</v>
       </c>
       <c r="C261" t="s">
@@ -9904,11 +9904,11 @@
         <v>558</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" hidden="1">
       <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" t="s">
         <v>559</v>
       </c>
       <c r="C262" t="s">
@@ -9924,11 +9924,11 @@
         <v>560</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" hidden="1">
       <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" t="s">
         <v>561</v>
       </c>
       <c r="C263" t="s">
@@ -9944,11 +9944,11 @@
         <v>562</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" hidden="1">
       <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" t="s">
         <v>563</v>
       </c>
       <c r="C264" t="s">
@@ -9967,11 +9967,11 @@
         <v>564</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" hidden="1">
       <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" t="s">
         <v>565</v>
       </c>
       <c r="C265" t="s">
@@ -9993,11 +9993,11 @@
         <v>566</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" hidden="1">
       <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" t="s">
         <v>567</v>
       </c>
       <c r="C266" t="s">
@@ -10013,11 +10013,11 @@
         <v>568</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" hidden="1">
       <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" t="s">
         <v>569</v>
       </c>
       <c r="C267" t="s">
@@ -10042,11 +10042,11 @@
         <v>570</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" hidden="1">
       <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" t="s">
         <v>571</v>
       </c>
       <c r="C268" t="s">
@@ -10074,11 +10074,11 @@
         <v>572</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" hidden="1">
       <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" t="s">
         <v>573</v>
       </c>
       <c r="C269" t="s">
@@ -10094,11 +10094,11 @@
         <v>574</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" hidden="1">
       <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" t="s">
         <v>575</v>
       </c>
       <c r="C270" t="s">
@@ -10117,11 +10117,11 @@
         <v>576</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" hidden="1">
       <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" t="s">
         <v>577</v>
       </c>
       <c r="C271" t="s">
@@ -10143,11 +10143,11 @@
         <v>578</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" hidden="1">
       <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" t="s">
         <v>579</v>
       </c>
       <c r="C272" t="s">
@@ -10172,11 +10172,11 @@
         <v>580</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" hidden="1">
       <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" t="s">
         <v>581</v>
       </c>
       <c r="C273" t="s">
@@ -10204,11 +10204,11 @@
         <v>582</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" hidden="1">
       <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" t="s">
         <v>583</v>
       </c>
       <c r="C274" t="s">
@@ -10227,11 +10227,11 @@
         <v>584</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" hidden="1">
       <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" t="s">
         <v>585</v>
       </c>
       <c r="C275" t="s">
@@ -10253,11 +10253,11 @@
         <v>586</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" hidden="1">
       <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" t="s">
         <v>587</v>
       </c>
       <c r="C276" t="s">
@@ -10276,11 +10276,11 @@
         <v>588</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" hidden="1">
       <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" t="s">
         <v>589</v>
       </c>
       <c r="C277" t="s">
@@ -10299,11 +10299,11 @@
         <v>590</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" hidden="1">
       <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" t="s">
         <v>591</v>
       </c>
       <c r="C278" t="s">
@@ -10325,11 +10325,11 @@
         <v>592</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" hidden="1">
       <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" t="s">
         <v>593</v>
       </c>
       <c r="C279" t="s">
@@ -10360,11 +10360,11 @@
         <v>594</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" hidden="1">
       <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" t="s">
         <v>595</v>
       </c>
       <c r="C280" t="s">
@@ -10389,11 +10389,11 @@
         <v>596</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" hidden="1">
       <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" t="s">
         <v>597</v>
       </c>
       <c r="C281" t="s">
@@ -10409,11 +10409,11 @@
         <v>598</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" hidden="1">
       <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" t="s">
         <v>599</v>
       </c>
       <c r="C282" t="s">
@@ -10444,11 +10444,11 @@
         <v>600</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" hidden="1">
       <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" t="s">
         <v>601</v>
       </c>
       <c r="C283" t="s">
@@ -10467,11 +10467,11 @@
         <v>602</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" hidden="1">
       <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" t="s">
         <v>603</v>
       </c>
       <c r="C284" t="s">
@@ -10490,11 +10490,11 @@
         <v>604</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" hidden="1">
       <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" t="s">
         <v>605</v>
       </c>
       <c r="C285" t="s">
@@ -10513,11 +10513,11 @@
         <v>606</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" hidden="1">
       <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" t="s">
         <v>607</v>
       </c>
       <c r="C286" t="s">
@@ -10539,11 +10539,11 @@
         <v>608</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" hidden="1">
       <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" t="s">
         <v>609</v>
       </c>
       <c r="C287" t="s">
@@ -10562,11 +10562,11 @@
         <v>610</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" hidden="1">
       <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" t="s">
         <v>611</v>
       </c>
       <c r="C288" t="s">
@@ -10591,11 +10591,11 @@
         <v>612</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" hidden="1">
       <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" t="s">
         <v>613</v>
       </c>
       <c r="C289" t="s">
@@ -10614,11 +10614,11 @@
         <v>614</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" hidden="1">
       <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" t="s">
         <v>615</v>
       </c>
       <c r="C290" t="s">
@@ -10637,11 +10637,11 @@
         <v>616</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" hidden="1">
       <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" t="s">
         <v>617</v>
       </c>
       <c r="C291" t="s">
@@ -10663,11 +10663,11 @@
         <v>618</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" hidden="1">
       <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" t="s">
         <v>619</v>
       </c>
       <c r="C292" t="s">
@@ -10692,11 +10692,11 @@
         <v>620</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" hidden="1">
       <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" t="s">
         <v>621</v>
       </c>
       <c r="C293" t="s">
@@ -10712,11 +10712,11 @@
         <v>622</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" hidden="1">
       <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" t="s">
         <v>623</v>
       </c>
       <c r="C294" t="s">
@@ -10732,11 +10732,11 @@
         <v>624</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" hidden="1">
       <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" t="s">
         <v>625</v>
       </c>
       <c r="C295" t="s">
@@ -10749,11 +10749,11 @@
         <v>626</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" hidden="1">
       <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" t="s">
         <v>627</v>
       </c>
       <c r="C296" t="s">
@@ -10772,11 +10772,11 @@
         <v>628</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" hidden="1">
       <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" t="s">
         <v>629</v>
       </c>
       <c r="C297" t="s">
@@ -10801,11 +10801,11 @@
         <v>630</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" hidden="1">
       <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" t="s">
         <v>631</v>
       </c>
       <c r="C298" t="s">
@@ -10827,11 +10827,11 @@
         <v>632</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" hidden="1">
       <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" t="s">
         <v>633</v>
       </c>
       <c r="C299" t="s">
@@ -10856,11 +10856,11 @@
         <v>634</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" hidden="1">
       <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" t="s">
         <v>635</v>
       </c>
       <c r="C300" t="s">
@@ -10882,11 +10882,11 @@
         <v>636</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" hidden="1">
       <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" t="s">
         <v>637</v>
       </c>
       <c r="C301" t="s">
@@ -10905,11 +10905,11 @@
         <v>638</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" hidden="1">
       <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" t="s">
         <v>639</v>
       </c>
       <c r="C302" t="s">
@@ -10928,11 +10928,11 @@
         <v>640</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" hidden="1">
       <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" t="s">
         <v>641</v>
       </c>
       <c r="C303" t="s">
@@ -10951,11 +10951,11 @@
         <v>642</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" hidden="1">
       <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" t="s">
         <v>643</v>
       </c>
       <c r="C304" t="s">
@@ -10980,11 +10980,11 @@
         <v>644</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" hidden="1">
       <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" t="s">
         <v>645</v>
       </c>
       <c r="C305" t="s">
@@ -11006,11 +11006,11 @@
         <v>646</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" hidden="1">
       <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" t="s">
         <v>647</v>
       </c>
       <c r="C306" t="s">
@@ -11026,11 +11026,11 @@
         <v>648</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" hidden="1">
       <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" t="s">
         <v>649</v>
       </c>
       <c r="C307" t="s">
@@ -11046,11 +11046,11 @@
         <v>650</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" hidden="1">
       <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" t="s">
         <v>651</v>
       </c>
       <c r="C308" t="s">
@@ -11066,11 +11066,11 @@
         <v>652</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" hidden="1">
       <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" t="s">
         <v>653</v>
       </c>
       <c r="C309" t="s">
@@ -11095,11 +11095,11 @@
         <v>654</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" hidden="1">
       <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" t="s">
         <v>655</v>
       </c>
       <c r="C310" t="s">
@@ -11118,11 +11118,11 @@
         <v>656</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" hidden="1">
       <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" t="s">
         <v>657</v>
       </c>
       <c r="C311" t="s">
@@ -11147,11 +11147,11 @@
         <v>658</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" hidden="1">
       <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" t="s">
         <v>659</v>
       </c>
       <c r="C312" t="s">
@@ -11173,11 +11173,11 @@
         <v>660</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" hidden="1">
       <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" t="s">
         <v>661</v>
       </c>
       <c r="C313" t="s">
@@ -11196,11 +11196,11 @@
         <v>662</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" hidden="1">
       <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" t="s">
         <v>663</v>
       </c>
       <c r="C314" t="s">
@@ -11219,11 +11219,11 @@
         <v>664</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" hidden="1">
       <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" t="s">
         <v>665</v>
       </c>
       <c r="C315" t="s">
@@ -11248,11 +11248,11 @@
         <v>666</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" hidden="1">
       <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" t="s">
         <v>667</v>
       </c>
       <c r="C316" t="s">
@@ -11268,11 +11268,11 @@
         <v>668</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" hidden="1">
       <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" t="s">
         <v>669</v>
       </c>
       <c r="C317" t="s">
@@ -11294,11 +11294,11 @@
         <v>670</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" hidden="1">
       <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" t="s">
         <v>671</v>
       </c>
       <c r="C318" t="s">
@@ -11317,11 +11317,11 @@
         <v>672</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" hidden="1">
       <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" t="s">
         <v>673</v>
       </c>
       <c r="C319" t="s">
@@ -11337,11 +11337,11 @@
         <v>674</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" hidden="1">
       <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" t="s">
         <v>675</v>
       </c>
       <c r="C320" t="s">
@@ -11360,11 +11360,11 @@
         <v>676</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" hidden="1">
       <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" t="s">
         <v>677</v>
       </c>
       <c r="C321" t="s">
@@ -11383,11 +11383,11 @@
         <v>678</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" hidden="1">
       <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" t="s">
         <v>679</v>
       </c>
       <c r="C322" t="s">
@@ -11412,11 +11412,11 @@
         <v>680</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" hidden="1">
       <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" t="s">
         <v>681</v>
       </c>
       <c r="C323" t="s">
@@ -11438,11 +11438,11 @@
         <v>682</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" hidden="1">
       <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" t="s">
         <v>683</v>
       </c>
       <c r="C324" t="s">
@@ -11461,11 +11461,11 @@
         <v>684</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" hidden="1">
       <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" t="s">
         <v>685</v>
       </c>
       <c r="C325" t="s">
@@ -11484,11 +11484,11 @@
         <v>686</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" hidden="1">
       <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" t="s">
         <v>687</v>
       </c>
       <c r="C326" t="s">
@@ -11513,11 +11513,11 @@
         <v>688</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" hidden="1">
       <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" t="s">
         <v>689</v>
       </c>
       <c r="C327" t="s">
@@ -11539,11 +11539,11 @@
         <v>690</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" hidden="1">
       <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" t="s">
         <v>691</v>
       </c>
       <c r="C328" t="s">
@@ -11565,11 +11565,11 @@
         <v>692</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" hidden="1">
       <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" t="s">
         <v>693</v>
       </c>
       <c r="C329" t="s">
@@ -11585,11 +11585,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" hidden="1">
       <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" t="s">
         <v>695</v>
       </c>
       <c r="C330" t="s">
@@ -11605,11 +11605,11 @@
         <v>696</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" hidden="1">
       <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" t="s">
         <v>697</v>
       </c>
       <c r="C331" t="s">
@@ -11622,11 +11622,11 @@
         <v>698</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" hidden="1">
       <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" t="s">
         <v>699</v>
       </c>
       <c r="C332" t="s">
@@ -11645,11 +11645,11 @@
         <v>700</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" hidden="1">
       <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" t="s">
         <v>701</v>
       </c>
       <c r="C333" t="s">
@@ -11674,11 +11674,11 @@
         <v>702</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" hidden="1">
       <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" t="s">
         <v>703</v>
       </c>
       <c r="C334" t="s">
@@ -11697,11 +11697,11 @@
         <v>704</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" hidden="1">
       <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" t="s">
         <v>705</v>
       </c>
       <c r="C335" t="s">
@@ -11720,11 +11720,11 @@
         <v>706</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" hidden="1">
       <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" t="s">
         <v>707</v>
       </c>
       <c r="C336" t="s">
@@ -11743,11 +11743,11 @@
         <v>708</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" hidden="1">
       <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" t="s">
         <v>709</v>
       </c>
       <c r="C337" t="s">
@@ -11769,11 +11769,11 @@
         <v>710</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" hidden="1">
       <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" t="s">
         <v>711</v>
       </c>
       <c r="C338" t="s">
@@ -11789,11 +11789,11 @@
         <v>712</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" hidden="1">
       <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" t="s">
         <v>713</v>
       </c>
       <c r="C339" t="s">
@@ -11818,11 +11818,11 @@
         <v>714</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" hidden="1">
       <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" t="s">
         <v>715</v>
       </c>
       <c r="C340" t="s">
@@ -11847,11 +11847,11 @@
         <v>716</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" hidden="1">
       <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B341" t="s">
         <v>717</v>
       </c>
       <c r="C341" t="s">
@@ -11870,11 +11870,11 @@
         <v>718</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" hidden="1">
       <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B342" t="s">
         <v>719</v>
       </c>
       <c r="C342" t="s">
@@ -11899,11 +11899,11 @@
         <v>720</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" hidden="1">
       <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B343" t="s">
         <v>721</v>
       </c>
       <c r="C343" t="s">
@@ -11925,11 +11925,11 @@
         <v>722</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" hidden="1">
       <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" t="s">
         <v>723</v>
       </c>
       <c r="C344" t="s">
@@ -11954,11 +11954,11 @@
         <v>724</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" hidden="1">
       <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" t="s">
         <v>725</v>
       </c>
       <c r="C345" t="s">
@@ -11971,11 +11971,11 @@
         <v>726</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" hidden="1">
       <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" t="s">
         <v>727</v>
       </c>
       <c r="C346" t="s">
@@ -12000,11 +12000,11 @@
         <v>728</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" hidden="1">
       <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B347" t="s">
         <v>729</v>
       </c>
       <c r="C347" t="s">
@@ -12023,11 +12023,11 @@
         <v>730</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" hidden="1">
       <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B348" t="s">
         <v>731</v>
       </c>
       <c r="C348" t="s">
@@ -12049,11 +12049,11 @@
         <v>732</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" hidden="1">
       <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B349" t="s">
         <v>733</v>
       </c>
       <c r="C349" t="s">
@@ -12081,11 +12081,11 @@
         <v>734</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" hidden="1">
       <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B350" t="s">
         <v>735</v>
       </c>
       <c r="C350" t="s">
@@ -12104,11 +12104,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" hidden="1">
       <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B351" t="s">
         <v>737</v>
       </c>
       <c r="C351" t="s">
@@ -12127,11 +12127,11 @@
         <v>738</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" hidden="1">
       <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B352" t="s">
         <v>739</v>
       </c>
       <c r="C352" t="s">
@@ -12150,11 +12150,11 @@
         <v>740</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" hidden="1">
       <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B353" t="s">
         <v>741</v>
       </c>
       <c r="C353" t="s">
@@ -12176,11 +12176,11 @@
         <v>742</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" hidden="1">
       <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B354" t="s">
         <v>743</v>
       </c>
       <c r="C354" t="s">
@@ -12196,11 +12196,11 @@
         <v>744</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" hidden="1">
       <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" s="3" t="s">
+      <c r="B355" t="s">
         <v>745</v>
       </c>
       <c r="C355" t="s">
@@ -12216,11 +12216,11 @@
         <v>746</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" hidden="1">
       <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" t="s">
         <v>747</v>
       </c>
       <c r="C356" t="s">
@@ -12239,11 +12239,11 @@
         <v>748</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" hidden="1">
       <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B357" t="s">
         <v>749</v>
       </c>
       <c r="C357" t="s">
@@ -12265,11 +12265,11 @@
         <v>750</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" hidden="1">
       <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" s="3" t="s">
+      <c r="B358" t="s">
         <v>751</v>
       </c>
       <c r="C358" t="s">
@@ -12288,11 +12288,11 @@
         <v>752</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" hidden="1">
       <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B359" t="s">
         <v>753</v>
       </c>
       <c r="C359" t="s">
@@ -12311,11 +12311,11 @@
         <v>754</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" hidden="1">
       <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B360" t="s">
         <v>755</v>
       </c>
       <c r="C360" t="s">
@@ -12334,11 +12334,11 @@
         <v>756</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" hidden="1">
       <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="B361" t="s">
         <v>757</v>
       </c>
       <c r="C361" t="s">
@@ -12357,11 +12357,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" hidden="1">
       <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" s="3" t="s">
+      <c r="B362" t="s">
         <v>759</v>
       </c>
       <c r="C362" t="s">
@@ -12380,11 +12380,11 @@
         <v>760</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" hidden="1">
       <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B363" t="s">
         <v>761</v>
       </c>
       <c r="C363" t="s">
@@ -12403,11 +12403,11 @@
         <v>762</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" hidden="1">
       <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="B364" t="s">
         <v>763</v>
       </c>
       <c r="C364" t="s">
@@ -12426,11 +12426,11 @@
         <v>764</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" hidden="1">
       <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="B365" t="s">
         <v>765</v>
       </c>
       <c r="C365" t="s">
@@ -12449,11 +12449,11 @@
         <v>766</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" hidden="1">
       <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="B366" t="s">
         <v>767</v>
       </c>
       <c r="C366" t="s">
@@ -12475,11 +12475,11 @@
         <v>768</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" hidden="1">
       <c r="A367" s="1">
         <v>365</v>
       </c>
-      <c r="B367" s="3" t="s">
+      <c r="B367" t="s">
         <v>769</v>
       </c>
       <c r="C367" t="s">
@@ -12495,11 +12495,11 @@
         <v>770</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" hidden="1">
       <c r="A368" s="1">
         <v>366</v>
       </c>
-      <c r="B368" s="3" t="s">
+      <c r="B368" t="s">
         <v>771</v>
       </c>
       <c r="C368" t="s">
@@ -12512,11 +12512,11 @@
         <v>772</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" hidden="1">
       <c r="A369" s="1">
         <v>367</v>
       </c>
-      <c r="B369" s="3" t="s">
+      <c r="B369" t="s">
         <v>773</v>
       </c>
       <c r="C369" t="s">
@@ -12541,11 +12541,11 @@
         <v>774</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" hidden="1">
       <c r="A370" s="1">
         <v>368</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B370" t="s">
         <v>775</v>
       </c>
       <c r="C370" t="s">
@@ -12561,11 +12561,11 @@
         <v>776</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" hidden="1">
       <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B371" t="s">
         <v>777</v>
       </c>
       <c r="C371" t="s">
@@ -12581,11 +12581,11 @@
         <v>778</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" hidden="1">
       <c r="A372" s="1">
         <v>370</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B372" t="s">
         <v>779</v>
       </c>
       <c r="C372" t="s">
@@ -12601,11 +12601,11 @@
         <v>780</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" hidden="1">
       <c r="A373" s="1">
         <v>371</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B373" t="s">
         <v>733</v>
       </c>
       <c r="C373" t="s">
@@ -12633,11 +12633,11 @@
         <v>734</v>
       </c>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" hidden="1">
       <c r="A374" s="1">
         <v>372</v>
       </c>
-      <c r="B374" s="3" t="s">
+      <c r="B374" t="s">
         <v>781</v>
       </c>
       <c r="C374" t="s">
@@ -12653,11 +12653,11 @@
         <v>782</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" hidden="1">
       <c r="A375" s="1">
         <v>373</v>
       </c>
-      <c r="B375" s="3" t="s">
+      <c r="B375" t="s">
         <v>783</v>
       </c>
       <c r="C375" t="s">
@@ -12673,11 +12673,11 @@
         <v>784</v>
       </c>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" hidden="1">
       <c r="A376" s="1">
         <v>374</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B376" t="s">
         <v>785</v>
       </c>
       <c r="C376" t="s">
@@ -12693,11 +12693,11 @@
         <v>786</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" hidden="1">
       <c r="A377" s="1">
         <v>375</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B377" t="s">
         <v>787</v>
       </c>
       <c r="C377" t="s">
@@ -12713,11 +12713,11 @@
         <v>788</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" hidden="1">
       <c r="A378" s="1">
         <v>376</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="B378" t="s">
         <v>789</v>
       </c>
       <c r="C378" t="s">
@@ -12733,11 +12733,11 @@
         <v>790</v>
       </c>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" hidden="1">
       <c r="A379" s="1">
         <v>377</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B379" t="s">
         <v>791</v>
       </c>
       <c r="C379" t="s">
@@ -12753,11 +12753,11 @@
         <v>792</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" hidden="1">
       <c r="A380" s="1">
         <v>378</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B380" t="s">
         <v>793</v>
       </c>
       <c r="C380" t="s">
@@ -12773,11 +12773,11 @@
         <v>794</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" hidden="1">
       <c r="A381" s="1">
         <v>379</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="B381" t="s">
         <v>795</v>
       </c>
       <c r="C381" t="s">
@@ -12793,11 +12793,11 @@
         <v>796</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" hidden="1">
       <c r="A382" s="1">
         <v>380</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B382" t="s">
         <v>797</v>
       </c>
       <c r="C382" t="s">
@@ -12813,11 +12813,11 @@
         <v>798</v>
       </c>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" hidden="1">
       <c r="A383" s="1">
         <v>381</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B383" t="s">
         <v>799</v>
       </c>
       <c r="C383" t="s">
@@ -12833,11 +12833,11 @@
         <v>800</v>
       </c>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" hidden="1">
       <c r="A384" s="1">
         <v>382</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B384" t="s">
         <v>461</v>
       </c>
       <c r="C384" t="s">
@@ -12853,11 +12853,11 @@
         <v>462</v>
       </c>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" hidden="1">
       <c r="A385" s="1">
         <v>383</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B385" t="s">
         <v>801</v>
       </c>
       <c r="C385" t="s">
@@ -12873,11 +12873,11 @@
         <v>802</v>
       </c>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" hidden="1">
       <c r="A386" s="1">
         <v>384</v>
       </c>
-      <c r="B386" s="3" t="s">
+      <c r="B386" t="s">
         <v>803</v>
       </c>
       <c r="C386" t="s">
@@ -12893,11 +12893,11 @@
         <v>804</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" hidden="1">
       <c r="A387" s="1">
         <v>385</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B387" t="s">
         <v>805</v>
       </c>
       <c r="C387" t="s">
@@ -12913,11 +12913,11 @@
         <v>806</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" hidden="1">
       <c r="A388" s="1">
         <v>386</v>
       </c>
-      <c r="B388" s="3" t="s">
+      <c r="B388" t="s">
         <v>807</v>
       </c>
       <c r="C388" t="s">
@@ -12933,11 +12933,11 @@
         <v>808</v>
       </c>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" hidden="1">
       <c r="A389" s="1">
         <v>387</v>
       </c>
-      <c r="B389" s="3" t="s">
+      <c r="B389" t="s">
         <v>325</v>
       </c>
       <c r="C389" t="s">
@@ -12953,11 +12953,11 @@
         <v>326</v>
       </c>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" hidden="1">
       <c r="A390" s="1">
         <v>388</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B390" t="s">
         <v>809</v>
       </c>
       <c r="C390" t="s">
@@ -12973,11 +12973,11 @@
         <v>810</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" hidden="1">
       <c r="A391" s="1">
         <v>389</v>
       </c>
-      <c r="B391" s="3" t="s">
+      <c r="B391" t="s">
         <v>811</v>
       </c>
       <c r="C391" t="s">
@@ -12993,11 +12993,11 @@
         <v>812</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" hidden="1">
       <c r="A392" s="1">
         <v>390</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B392" t="s">
         <v>813</v>
       </c>
       <c r="C392" t="s">
@@ -13013,11 +13013,11 @@
         <v>814</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" hidden="1">
       <c r="A393" s="1">
         <v>391</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="B393" t="s">
         <v>815</v>
       </c>
       <c r="C393" t="s">
@@ -13033,11 +13033,11 @@
         <v>816</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" hidden="1">
       <c r="A394" s="1">
         <v>392</v>
       </c>
-      <c r="B394" s="3" t="s">
+      <c r="B394" t="s">
         <v>817</v>
       </c>
       <c r="C394" t="s">
@@ -13053,11 +13053,11 @@
         <v>818</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" hidden="1">
       <c r="A395" s="1">
         <v>393</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B395" t="s">
         <v>625</v>
       </c>
       <c r="C395" t="s">
@@ -13073,11 +13073,11 @@
         <v>626</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" hidden="1">
       <c r="A396" s="1">
         <v>394</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="B396" t="s">
         <v>819</v>
       </c>
       <c r="C396" t="s">
@@ -13093,11 +13093,11 @@
         <v>820</v>
       </c>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" hidden="1">
       <c r="A397" s="1">
         <v>395</v>
       </c>
-      <c r="B397" s="3" t="s">
+      <c r="B397" t="s">
         <v>821</v>
       </c>
       <c r="C397" t="s">
@@ -13113,11 +13113,11 @@
         <v>822</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" hidden="1">
       <c r="A398" s="1">
         <v>396</v>
       </c>
-      <c r="B398" s="3" t="s">
+      <c r="B398" t="s">
         <v>823</v>
       </c>
       <c r="C398" t="s">
@@ -13133,11 +13133,11 @@
         <v>824</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" hidden="1">
       <c r="A399" s="1">
         <v>397</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="B399" t="s">
         <v>825</v>
       </c>
       <c r="C399" t="s">
@@ -13153,11 +13153,11 @@
         <v>826</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" hidden="1">
       <c r="A400" s="1">
         <v>398</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B400" t="s">
         <v>827</v>
       </c>
       <c r="C400" t="s">
@@ -13173,11 +13173,11 @@
         <v>828</v>
       </c>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" hidden="1">
       <c r="A401" s="1">
         <v>399</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B401" t="s">
         <v>829</v>
       </c>
       <c r="C401" t="s">
@@ -13193,11 +13193,11 @@
         <v>830</v>
       </c>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" hidden="1">
       <c r="A402" s="1">
         <v>400</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="B402" t="s">
         <v>831</v>
       </c>
       <c r="C402" t="s">
@@ -13210,11 +13210,11 @@
         <v>832</v>
       </c>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" hidden="1">
       <c r="A403" s="1">
         <v>401</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B403" t="s">
         <v>833</v>
       </c>
       <c r="C403" t="s">
@@ -13227,11 +13227,11 @@
         <v>834</v>
       </c>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" hidden="1">
       <c r="A404" s="1">
         <v>402</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B404" t="s">
         <v>835</v>
       </c>
       <c r="C404" t="s">
@@ -13244,11 +13244,11 @@
         <v>836</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" hidden="1">
       <c r="A405" s="1">
         <v>403</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="B405" t="s">
         <v>837</v>
       </c>
       <c r="C405" t="s">
@@ -13261,11 +13261,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" hidden="1">
       <c r="A406" s="1">
         <v>404</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B406" t="s">
         <v>839</v>
       </c>
       <c r="C406" t="s">
@@ -13278,11 +13278,11 @@
         <v>840</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" hidden="1">
       <c r="A407" s="1">
         <v>405</v>
       </c>
-      <c r="B407" s="3" t="s">
+      <c r="B407" t="s">
         <v>841</v>
       </c>
       <c r="C407" t="s">
@@ -13298,11 +13298,11 @@
         <v>842</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" hidden="1">
       <c r="A408" s="1">
         <v>406</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B408" t="s">
         <v>843</v>
       </c>
       <c r="C408" t="s">
@@ -13315,11 +13315,11 @@
         <v>844</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" hidden="1">
       <c r="A409" s="1">
         <v>407</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="B409" t="s">
         <v>845</v>
       </c>
       <c r="C409" t="s">
@@ -13332,11 +13332,11 @@
         <v>846</v>
       </c>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" hidden="1">
       <c r="A410" s="1">
         <v>408</v>
       </c>
-      <c r="B410" s="3" t="s">
+      <c r="B410" t="s">
         <v>847</v>
       </c>
       <c r="C410" t="s">
@@ -13352,11 +13352,11 @@
         <v>848</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" hidden="1">
       <c r="A411" s="1">
         <v>409</v>
       </c>
-      <c r="B411" s="3" t="s">
+      <c r="B411" t="s">
         <v>849</v>
       </c>
       <c r="C411" t="s">
@@ -13378,11 +13378,11 @@
         <v>850</v>
       </c>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" hidden="1">
       <c r="A412" s="1">
         <v>410</v>
       </c>
-      <c r="B412" s="3" t="s">
+      <c r="B412" t="s">
         <v>851</v>
       </c>
       <c r="C412" t="s">
@@ -13404,11 +13404,11 @@
         <v>852</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" hidden="1">
       <c r="A413" s="1">
         <v>411</v>
       </c>
-      <c r="B413" s="3" t="s">
+      <c r="B413" t="s">
         <v>853</v>
       </c>
       <c r="C413" t="s">
@@ -13424,11 +13424,11 @@
         <v>854</v>
       </c>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" hidden="1">
       <c r="A414" s="1">
         <v>412</v>
       </c>
-      <c r="B414" s="3" t="s">
+      <c r="B414" t="s">
         <v>855</v>
       </c>
       <c r="C414" t="s">
@@ -13447,11 +13447,11 @@
         <v>856</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" hidden="1">
       <c r="A415" s="1">
         <v>413</v>
       </c>
-      <c r="B415" s="3" t="s">
+      <c r="B415" t="s">
         <v>857</v>
       </c>
       <c r="C415" t="s">
@@ -13467,11 +13467,11 @@
         <v>858</v>
       </c>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" hidden="1">
       <c r="A416" s="1">
         <v>414</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="B416" t="s">
         <v>859</v>
       </c>
       <c r="C416" t="s">
@@ -13487,11 +13487,11 @@
         <v>860</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" hidden="1">
       <c r="A417" s="1">
         <v>415</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B417" t="s">
         <v>861</v>
       </c>
       <c r="C417" t="s">
@@ -13507,11 +13507,11 @@
         <v>862</v>
       </c>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" hidden="1">
       <c r="A418" s="1">
         <v>416</v>
       </c>
-      <c r="B418" s="3" t="s">
+      <c r="B418" t="s">
         <v>863</v>
       </c>
       <c r="C418" t="s">
@@ -13527,11 +13527,11 @@
         <v>864</v>
       </c>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" hidden="1">
       <c r="A419" s="1">
         <v>417</v>
       </c>
-      <c r="B419" s="3" t="s">
+      <c r="B419" t="s">
         <v>865</v>
       </c>
       <c r="C419" t="s">
@@ -13547,11 +13547,11 @@
         <v>866</v>
       </c>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" hidden="1">
       <c r="A420" s="1">
         <v>418</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="B420" t="s">
         <v>867</v>
       </c>
       <c r="C420" t="s">
@@ -13570,11 +13570,11 @@
         <v>868</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" hidden="1">
       <c r="A421" s="1">
         <v>419</v>
       </c>
-      <c r="B421" s="3" t="s">
+      <c r="B421" t="s">
         <v>869</v>
       </c>
       <c r="C421" t="s">
@@ -13590,11 +13590,11 @@
         <v>870</v>
       </c>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" hidden="1">
       <c r="A422" s="1">
         <v>420</v>
       </c>
-      <c r="B422" s="3" t="s">
+      <c r="B422" t="s">
         <v>871</v>
       </c>
       <c r="C422" t="s">
@@ -13610,11 +13610,11 @@
         <v>872</v>
       </c>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" hidden="1">
       <c r="A423" s="1">
         <v>421</v>
       </c>
-      <c r="B423" s="3" t="s">
+      <c r="B423" t="s">
         <v>873</v>
       </c>
       <c r="C423" t="s">
@@ -13633,11 +13633,11 @@
         <v>874</v>
       </c>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" hidden="1">
       <c r="A424" s="1">
         <v>422</v>
       </c>
-      <c r="B424" s="3" t="s">
+      <c r="B424" t="s">
         <v>875</v>
       </c>
       <c r="C424" t="s">
@@ -13653,11 +13653,11 @@
         <v>876</v>
       </c>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" hidden="1">
       <c r="A425" s="1">
         <v>423</v>
       </c>
-      <c r="B425" s="3" t="s">
+      <c r="B425" t="s">
         <v>877</v>
       </c>
       <c r="C425" t="s">
@@ -13673,11 +13673,11 @@
         <v>878</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" hidden="1">
       <c r="A426" s="1">
         <v>424</v>
       </c>
-      <c r="B426" s="3" t="s">
+      <c r="B426" t="s">
         <v>879</v>
       </c>
       <c r="C426" t="s">
@@ -13699,11 +13699,11 @@
         <v>880</v>
       </c>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" hidden="1">
       <c r="A427" s="1">
         <v>425</v>
       </c>
-      <c r="B427" s="3" t="s">
+      <c r="B427" t="s">
         <v>881</v>
       </c>
       <c r="C427" t="s">
@@ -13719,11 +13719,11 @@
         <v>882</v>
       </c>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" hidden="1">
       <c r="A428" s="1">
         <v>426</v>
       </c>
-      <c r="B428" s="3" t="s">
+      <c r="B428" t="s">
         <v>883</v>
       </c>
       <c r="C428" t="s">
@@ -13739,11 +13739,11 @@
         <v>884</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" hidden="1">
       <c r="A429" s="1">
         <v>427</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="B429" t="s">
         <v>885</v>
       </c>
       <c r="C429" t="s">
@@ -13759,11 +13759,11 @@
         <v>886</v>
       </c>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" hidden="1">
       <c r="A430" s="1">
         <v>428</v>
       </c>
-      <c r="B430" s="3" t="s">
+      <c r="B430" t="s">
         <v>887</v>
       </c>
       <c r="C430" t="s">
@@ -13779,11 +13779,11 @@
         <v>888</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" hidden="1">
       <c r="A431" s="1">
         <v>429</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="B431" t="s">
         <v>889</v>
       </c>
       <c r="C431" t="s">
@@ -13799,11 +13799,11 @@
         <v>890</v>
       </c>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" hidden="1">
       <c r="A432" s="1">
         <v>430</v>
       </c>
-      <c r="B432" s="3" t="s">
+      <c r="B432" t="s">
         <v>891</v>
       </c>
       <c r="C432" t="s">
@@ -13819,11 +13819,11 @@
         <v>892</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" hidden="1">
       <c r="A433" s="1">
         <v>431</v>
       </c>
-      <c r="B433" s="3" t="s">
+      <c r="B433" t="s">
         <v>893</v>
       </c>
       <c r="C433" t="s">
@@ -13839,11 +13839,11 @@
         <v>894</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" hidden="1">
       <c r="A434" s="1">
         <v>432</v>
       </c>
-      <c r="B434" s="3" t="s">
+      <c r="B434" t="s">
         <v>895</v>
       </c>
       <c r="C434" t="s">
@@ -13859,11 +13859,11 @@
         <v>896</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" hidden="1">
       <c r="A435" s="1">
         <v>433</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="B435" t="s">
         <v>897</v>
       </c>
       <c r="C435" t="s">
@@ -13879,11 +13879,11 @@
         <v>898</v>
       </c>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" hidden="1">
       <c r="A436" s="1">
         <v>434</v>
       </c>
-      <c r="B436" s="3" t="s">
+      <c r="B436" t="s">
         <v>899</v>
       </c>
       <c r="C436" t="s">
@@ -13905,11 +13905,11 @@
         <v>900</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" hidden="1">
       <c r="A437" s="1">
         <v>435</v>
       </c>
-      <c r="B437" s="3" t="s">
+      <c r="B437" t="s">
         <v>901</v>
       </c>
       <c r="C437" t="s">
@@ -13928,11 +13928,11 @@
         <v>902</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" hidden="1">
       <c r="A438" s="1">
         <v>436</v>
       </c>
-      <c r="B438" s="3" t="s">
+      <c r="B438" t="s">
         <v>903</v>
       </c>
       <c r="C438" t="s">
@@ -13948,11 +13948,11 @@
         <v>904</v>
       </c>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" hidden="1">
       <c r="A439" s="1">
         <v>437</v>
       </c>
-      <c r="B439" s="3" t="s">
+      <c r="B439" t="s">
         <v>905</v>
       </c>
       <c r="C439" t="s">
@@ -13977,11 +13977,11 @@
         <v>906</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" hidden="1">
       <c r="A440" s="1">
         <v>438</v>
       </c>
-      <c r="B440" s="3" t="s">
+      <c r="B440" t="s">
         <v>907</v>
       </c>
       <c r="C440" t="s">
@@ -13994,11 +13994,11 @@
         <v>908</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" hidden="1">
       <c r="A441" s="1">
         <v>439</v>
       </c>
-      <c r="B441" s="3" t="s">
+      <c r="B441" t="s">
         <v>563</v>
       </c>
       <c r="C441" t="s">
@@ -14017,11 +14017,11 @@
         <v>564</v>
       </c>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" hidden="1">
       <c r="A442" s="1">
         <v>440</v>
       </c>
-      <c r="B442" s="3" t="s">
+      <c r="B442" t="s">
         <v>441</v>
       </c>
       <c r="C442" t="s">
@@ -14037,11 +14037,11 @@
         <v>442</v>
       </c>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" hidden="1">
       <c r="A443" s="1">
         <v>441</v>
       </c>
-      <c r="B443" s="3" t="s">
+      <c r="B443" t="s">
         <v>909</v>
       </c>
       <c r="C443" t="s">
@@ -14060,11 +14060,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" hidden="1">
       <c r="A444" s="1">
         <v>442</v>
       </c>
-      <c r="B444" s="3" t="s">
+      <c r="B444" t="s">
         <v>911</v>
       </c>
       <c r="C444" t="s">
@@ -14083,11 +14083,11 @@
         <v>912</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" hidden="1">
       <c r="A445" s="1">
         <v>443</v>
       </c>
-      <c r="B445" s="3" t="s">
+      <c r="B445" t="s">
         <v>913</v>
       </c>
       <c r="C445" t="s">
@@ -14106,11 +14106,11 @@
         <v>914</v>
       </c>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" hidden="1">
       <c r="A446" s="1">
         <v>444</v>
       </c>
-      <c r="B446" s="3" t="s">
+      <c r="B446" t="s">
         <v>915</v>
       </c>
       <c r="C446" t="s">
@@ -14126,11 +14126,11 @@
         <v>916</v>
       </c>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" hidden="1">
       <c r="A447" s="1">
         <v>445</v>
       </c>
-      <c r="B447" s="3" t="s">
+      <c r="B447" t="s">
         <v>917</v>
       </c>
       <c r="C447" t="s">
@@ -14149,11 +14149,11 @@
         <v>918</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" hidden="1">
       <c r="A448" s="1">
         <v>446</v>
       </c>
-      <c r="B448" s="3" t="s">
+      <c r="B448" t="s">
         <v>919</v>
       </c>
       <c r="C448" t="s">
@@ -14172,11 +14172,11 @@
         <v>920</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" hidden="1">
       <c r="A449" s="1">
         <v>447</v>
       </c>
-      <c r="B449" s="3" t="s">
+      <c r="B449" t="s">
         <v>921</v>
       </c>
       <c r="C449" t="s">
@@ -14198,11 +14198,11 @@
         <v>922</v>
       </c>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" hidden="1">
       <c r="A450" s="1">
         <v>448</v>
       </c>
-      <c r="B450" s="3" t="s">
+      <c r="B450" t="s">
         <v>923</v>
       </c>
       <c r="C450" t="s">
@@ -14218,11 +14218,11 @@
         <v>924</v>
       </c>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" hidden="1">
       <c r="A451" s="1">
         <v>449</v>
       </c>
-      <c r="B451" s="3" t="s">
+      <c r="B451" t="s">
         <v>925</v>
       </c>
       <c r="C451" t="s">
@@ -14238,11 +14238,11 @@
         <v>926</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" hidden="1">
       <c r="A452" s="1">
         <v>450</v>
       </c>
-      <c r="B452" s="3" t="s">
+      <c r="B452" t="s">
         <v>927</v>
       </c>
       <c r="C452" t="s">
@@ -14264,11 +14264,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" hidden="1">
       <c r="A453" s="1">
         <v>451</v>
       </c>
-      <c r="B453" s="3" t="s">
+      <c r="B453" t="s">
         <v>929</v>
       </c>
       <c r="C453" t="s">
@@ -14293,11 +14293,11 @@
         <v>930</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" hidden="1">
       <c r="A454" s="1">
         <v>452</v>
       </c>
-      <c r="B454" s="3" t="s">
+      <c r="B454" t="s">
         <v>931</v>
       </c>
       <c r="C454" t="s">
@@ -14322,11 +14322,11 @@
         <v>932</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" hidden="1">
       <c r="A455" s="1">
         <v>453</v>
       </c>
-      <c r="B455" s="3" t="s">
+      <c r="B455" t="s">
         <v>933</v>
       </c>
       <c r="C455" t="s">
@@ -14345,11 +14345,11 @@
         <v>934</v>
       </c>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" hidden="1">
       <c r="A456" s="1">
         <v>454</v>
       </c>
-      <c r="B456" s="3" t="s">
+      <c r="B456" t="s">
         <v>935</v>
       </c>
       <c r="C456" t="s">
@@ -14371,11 +14371,11 @@
         <v>936</v>
       </c>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" hidden="1">
       <c r="A457" s="1">
         <v>455</v>
       </c>
-      <c r="B457" s="3" t="s">
+      <c r="B457" t="s">
         <v>937</v>
       </c>
       <c r="C457" t="s">
@@ -14400,11 +14400,11 @@
         <v>938</v>
       </c>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" hidden="1">
       <c r="A458" s="1">
         <v>456</v>
       </c>
-      <c r="B458" s="3" t="s">
+      <c r="B458" t="s">
         <v>939</v>
       </c>
       <c r="C458" t="s">
@@ -14429,11 +14429,11 @@
         <v>940</v>
       </c>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" hidden="1">
       <c r="A459" s="1">
         <v>457</v>
       </c>
-      <c r="B459" s="3" t="s">
+      <c r="B459" t="s">
         <v>941</v>
       </c>
       <c r="C459" t="s">
@@ -14455,11 +14455,11 @@
         <v>942</v>
       </c>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" hidden="1">
       <c r="A460" s="1">
         <v>458</v>
       </c>
-      <c r="B460" s="3" t="s">
+      <c r="B460" t="s">
         <v>943</v>
       </c>
       <c r="C460" t="s">
@@ -14484,11 +14484,11 @@
         <v>944</v>
       </c>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" hidden="1">
       <c r="A461" s="1">
         <v>459</v>
       </c>
-      <c r="B461" s="3" t="s">
+      <c r="B461" t="s">
         <v>945</v>
       </c>
       <c r="C461" t="s">
@@ -14513,11 +14513,11 @@
         <v>946</v>
       </c>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" hidden="1">
       <c r="A462" s="1">
         <v>460</v>
       </c>
-      <c r="B462" s="3" t="s">
+      <c r="B462" t="s">
         <v>947</v>
       </c>
       <c r="C462" t="s">
@@ -14542,11 +14542,11 @@
         <v>948</v>
       </c>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" hidden="1">
       <c r="A463" s="1">
         <v>461</v>
       </c>
-      <c r="B463" s="3" t="s">
+      <c r="B463" t="s">
         <v>949</v>
       </c>
       <c r="C463" t="s">
@@ -14571,11 +14571,11 @@
         <v>950</v>
       </c>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" hidden="1">
       <c r="A464" s="1">
         <v>462</v>
       </c>
-      <c r="B464" s="3" t="s">
+      <c r="B464" t="s">
         <v>951</v>
       </c>
       <c r="C464" t="s">
@@ -14600,11 +14600,11 @@
         <v>952</v>
       </c>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" hidden="1">
       <c r="A465" s="1">
         <v>463</v>
       </c>
-      <c r="B465" s="3" t="s">
+      <c r="B465" t="s">
         <v>953</v>
       </c>
       <c r="C465" t="s">
@@ -14629,11 +14629,11 @@
         <v>954</v>
       </c>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" hidden="1">
       <c r="A466" s="1">
         <v>464</v>
       </c>
-      <c r="B466" s="3" t="s">
+      <c r="B466" t="s">
         <v>955</v>
       </c>
       <c r="C466" t="s">
@@ -14655,11 +14655,11 @@
         <v>956</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" hidden="1">
       <c r="A467" s="1">
         <v>465</v>
       </c>
-      <c r="B467" s="3" t="s">
+      <c r="B467" t="s">
         <v>957</v>
       </c>
       <c r="C467" t="s">
@@ -14675,11 +14675,11 @@
         <v>958</v>
       </c>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" hidden="1">
       <c r="A468" s="1">
         <v>466</v>
       </c>
-      <c r="B468" s="3" t="s">
+      <c r="B468" t="s">
         <v>959</v>
       </c>
       <c r="C468" t="s">
@@ -14698,11 +14698,11 @@
         <v>960</v>
       </c>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" hidden="1">
       <c r="A469" s="1">
         <v>467</v>
       </c>
-      <c r="B469" s="3" t="s">
+      <c r="B469" t="s">
         <v>961</v>
       </c>
       <c r="C469" t="s">
@@ -14718,11 +14718,11 @@
         <v>962</v>
       </c>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" hidden="1">
       <c r="A470" s="1">
         <v>468</v>
       </c>
-      <c r="B470" s="3" t="s">
+      <c r="B470" t="s">
         <v>963</v>
       </c>
       <c r="C470" t="s">
@@ -14741,11 +14741,11 @@
         <v>964</v>
       </c>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" hidden="1">
       <c r="A471" s="1">
         <v>469</v>
       </c>
-      <c r="B471" s="3" t="s">
+      <c r="B471" t="s">
         <v>965</v>
       </c>
       <c r="C471" t="s">
@@ -14761,11 +14761,11 @@
         <v>966</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" hidden="1">
       <c r="A472" s="1">
         <v>470</v>
       </c>
-      <c r="B472" s="3" t="s">
+      <c r="B472" t="s">
         <v>967</v>
       </c>
       <c r="C472" t="s">
@@ -14784,11 +14784,11 @@
         <v>968</v>
       </c>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" hidden="1">
       <c r="A473" s="1">
         <v>471</v>
       </c>
-      <c r="B473" s="3" t="s">
+      <c r="B473" t="s">
         <v>827</v>
       </c>
       <c r="C473" t="s">
@@ -14804,11 +14804,11 @@
         <v>828</v>
       </c>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" hidden="1">
       <c r="A474" s="1">
         <v>472</v>
       </c>
-      <c r="B474" s="3" t="s">
+      <c r="B474" t="s">
         <v>969</v>
       </c>
       <c r="C474" t="s">
@@ -14824,11 +14824,11 @@
         <v>970</v>
       </c>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" hidden="1">
       <c r="A475" s="1">
         <v>473</v>
       </c>
-      <c r="B475" s="3" t="s">
+      <c r="B475" t="s">
         <v>971</v>
       </c>
       <c r="C475" t="s">
@@ -14859,11 +14859,11 @@
         <v>972</v>
       </c>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" hidden="1">
       <c r="A476" s="1">
         <v>474</v>
       </c>
-      <c r="B476" s="3" t="s">
+      <c r="B476" t="s">
         <v>973</v>
       </c>
       <c r="C476" t="s">
@@ -14879,11 +14879,11 @@
         <v>974</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" hidden="1">
       <c r="A477" s="1">
         <v>475</v>
       </c>
-      <c r="B477" s="3" t="s">
+      <c r="B477" t="s">
         <v>975</v>
       </c>
       <c r="C477" t="s">
@@ -14899,11 +14899,11 @@
         <v>976</v>
       </c>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" hidden="1">
       <c r="A478" s="1">
         <v>476</v>
       </c>
-      <c r="B478" s="3" t="s">
+      <c r="B478" t="s">
         <v>977</v>
       </c>
       <c r="C478" t="s">
@@ -14920,7 +14920,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K478" xr:uid="{92C8177E-62D6-4EB9-9C53-CE7EDFBA1310}"/>
+  <autoFilter ref="A2:K478" xr:uid="{92C8177E-62D6-4EB9-9C53-CE7EDFBA1310}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/player_contract_data.xlsx
+++ b/data/player_contract_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c6325700e18a419/Documents/mads/team24_milestone1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{5FC8BF97-A0F5-46D8-B7B3-2AE61872BF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8414C56D-D96B-49CD-B97D-A0AFD2FEAE63}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{5FC8BF97-A0F5-46D8-B7B3-2AE61872BF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB7CA35A-AF2F-44B4-8978-808A4F492DD7}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="13403" windowWidth="21795" windowHeight="12975" xr2:uid="{28175B69-A54C-4183-BF97-D4D771D07AE0}"/>
+    <workbookView xWindow="2610" yWindow="14438" windowWidth="16200" windowHeight="9307" xr2:uid="{28175B69-A54C-4183-BF97-D4D771D07AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="player_contract_data" sheetId="1" r:id="rId1"/>
@@ -3069,9 +3069,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3109,7 +3109,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3215,7 +3215,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3357,7 +3357,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3365,7 +3365,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C8177E-62D6-4EB9-9C53-CE7EDFBA1310}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3440,7 +3439,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3466,7 +3465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3524,7 +3523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3709,7 +3708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3781,7 +3780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3897,7 +3896,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4038,7 +4037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4128,7 +4127,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4238,7 +4237,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4270,7 +4269,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4400,7 +4399,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4452,7 +4451,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4539,7 +4538,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4559,7 +4558,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4634,7 +4633,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4660,7 +4659,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4680,7 +4679,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1">
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1">
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4932,7 +4931,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1">
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4975,7 +4974,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1">
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1">
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1">
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5192,7 +5191,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5241,7 +5240,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1">
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5267,7 +5266,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1">
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5313,7 +5312,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1">
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1">
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1">
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1">
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1">
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5463,7 +5462,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1">
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5483,7 +5482,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1">
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5512,7 +5511,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1">
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1">
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1">
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1">
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5610,7 +5609,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1">
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5633,7 +5632,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1">
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1">
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1">
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5702,7 +5701,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1">
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1">
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5760,7 +5759,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1">
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5786,7 +5785,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1">
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1">
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1">
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5858,7 +5857,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1">
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5881,7 +5880,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1">
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1">
+    <row r="98" spans="1:11">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1">
+    <row r="99" spans="1:11">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1">
+    <row r="100" spans="1:11">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5973,7 +5972,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1">
+    <row r="101" spans="1:11">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1">
+    <row r="102" spans="1:11">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1">
+    <row r="103" spans="1:11">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6045,7 +6044,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1">
+    <row r="104" spans="1:11">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6068,7 +6067,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1">
+    <row r="105" spans="1:11">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1">
+    <row r="106" spans="1:11">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6120,7 +6119,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1">
+    <row r="107" spans="1:11">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6146,7 +6145,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1">
+    <row r="108" spans="1:11">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1">
+    <row r="109" spans="1:11">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6189,7 +6188,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1">
+    <row r="110" spans="1:11">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6218,7 +6217,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1">
+    <row r="111" spans="1:11">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6241,7 +6240,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1">
+    <row r="112" spans="1:11">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1">
+    <row r="113" spans="1:11">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1">
+    <row r="114" spans="1:11">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1">
+    <row r="115" spans="1:11">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1">
+    <row r="116" spans="1:11">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6359,7 +6358,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1">
+    <row r="117" spans="1:11">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6394,7 +6393,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1">
+    <row r="118" spans="1:11">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6420,7 +6419,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1">
+    <row r="119" spans="1:11">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6440,7 +6439,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1">
+    <row r="120" spans="1:11">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6472,7 +6471,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1">
+    <row r="121" spans="1:11">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6498,7 +6497,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1">
+    <row r="122" spans="1:11">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6521,7 +6520,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1">
+    <row r="123" spans="1:11">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1">
+    <row r="124" spans="1:11">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1">
+    <row r="125" spans="1:11">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6602,7 +6601,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1">
+    <row r="126" spans="1:11">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6625,7 +6624,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1">
+    <row r="127" spans="1:11">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1">
+    <row r="128" spans="1:11">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6671,7 +6670,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1">
+    <row r="129" spans="1:11">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1">
+    <row r="130" spans="1:11">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6720,7 +6719,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1">
+    <row r="131" spans="1:11">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6743,7 +6742,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1">
+    <row r="132" spans="1:11">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1">
+    <row r="133" spans="1:11">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6795,7 +6794,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1">
+    <row r="134" spans="1:11">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6824,7 +6823,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1">
+    <row r="135" spans="1:11">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6847,7 +6846,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1">
+    <row r="136" spans="1:11">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1">
+    <row r="137" spans="1:11">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1">
+    <row r="138" spans="1:11">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6913,7 +6912,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1">
+    <row r="139" spans="1:11">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6939,7 +6938,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1">
+    <row r="140" spans="1:11">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6965,7 +6964,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1">
+    <row r="141" spans="1:11">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6991,7 +6990,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1">
+    <row r="142" spans="1:11">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7014,7 +7013,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1">
+    <row r="143" spans="1:11">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7034,7 +7033,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1">
+    <row r="144" spans="1:11">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1">
+    <row r="145" spans="1:11">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1">
+    <row r="146" spans="1:11">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7103,7 +7102,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1">
+    <row r="147" spans="1:11">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1">
+    <row r="148" spans="1:11">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7149,7 +7148,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1">
+    <row r="149" spans="1:11">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7184,7 +7183,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1">
+    <row r="150" spans="1:11">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1">
+    <row r="151" spans="1:11">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7242,7 +7241,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1">
+    <row r="152" spans="1:11">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1">
+    <row r="153" spans="1:11">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7291,7 +7290,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1">
+    <row r="154" spans="1:11">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1">
+    <row r="155" spans="1:11">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1">
+    <row r="156" spans="1:11">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1">
+    <row r="157" spans="1:11">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1">
+    <row r="158" spans="1:11">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1">
+    <row r="159" spans="1:11">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1">
+    <row r="160" spans="1:11">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1">
+    <row r="161" spans="1:11">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -7478,7 +7477,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1">
+    <row r="162" spans="1:11">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -7501,7 +7500,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1">
+    <row r="163" spans="1:11">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -7521,7 +7520,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1">
+    <row r="164" spans="1:11">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -7541,7 +7540,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1">
+    <row r="165" spans="1:11">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -7570,7 +7569,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1">
+    <row r="166" spans="1:11">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -7590,7 +7589,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1">
+    <row r="167" spans="1:11">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -7613,7 +7612,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1">
+    <row r="168" spans="1:11">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -7633,7 +7632,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1">
+    <row r="169" spans="1:11">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7656,7 +7655,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1">
+    <row r="170" spans="1:11">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -7676,7 +7675,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1">
+    <row r="171" spans="1:11">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -7702,7 +7701,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1">
+    <row r="172" spans="1:11">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1">
+    <row r="173" spans="1:11">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -7748,7 +7747,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1">
+    <row r="174" spans="1:11">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -7768,7 +7767,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1">
+    <row r="175" spans="1:11">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7788,7 +7787,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1">
+    <row r="176" spans="1:11">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1">
+    <row r="177" spans="1:11">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -7831,7 +7830,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1">
+    <row r="178" spans="1:11">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -7860,7 +7859,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1">
+    <row r="179" spans="1:11">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1">
+    <row r="180" spans="1:11">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1">
+    <row r="181" spans="1:11">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1">
+    <row r="182" spans="1:11">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -7958,7 +7957,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1">
+    <row r="183" spans="1:11">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -7978,7 +7977,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1">
+    <row r="184" spans="1:11">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8010,7 +8009,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1">
+    <row r="185" spans="1:11">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8033,7 +8032,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1">
+    <row r="186" spans="1:11">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8062,7 +8061,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1">
+    <row r="187" spans="1:11">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8085,7 +8084,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1">
+    <row r="188" spans="1:11">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1">
+    <row r="189" spans="1:11">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1">
+    <row r="190" spans="1:11">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8148,7 +8147,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1">
+    <row r="191" spans="1:11">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8177,7 +8176,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1">
+    <row r="192" spans="1:11">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8197,7 +8196,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1">
+    <row r="193" spans="1:11">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8223,7 +8222,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1">
+    <row r="194" spans="1:11">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -8249,7 +8248,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1">
+    <row r="195" spans="1:11">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -8275,7 +8274,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1">
+    <row r="196" spans="1:11">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -8301,7 +8300,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1">
+    <row r="197" spans="1:11">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -8327,7 +8326,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1">
+    <row r="198" spans="1:11">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -8350,7 +8349,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1">
+    <row r="199" spans="1:11">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -8370,7 +8369,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1">
+    <row r="200" spans="1:11">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -8393,7 +8392,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1">
+    <row r="201" spans="1:11">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -8422,7 +8421,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1">
+    <row r="202" spans="1:11">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -8442,7 +8441,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1">
+    <row r="203" spans="1:11">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -8462,7 +8461,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1">
+    <row r="204" spans="1:11">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -8488,7 +8487,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1">
+    <row r="205" spans="1:11">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -8508,7 +8507,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1">
+    <row r="206" spans="1:11">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -8531,7 +8530,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1">
+    <row r="207" spans="1:11">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -8551,7 +8550,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1">
+    <row r="208" spans="1:11">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -8571,7 +8570,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1">
+    <row r="209" spans="1:11">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -8591,7 +8590,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1">
+    <row r="210" spans="1:11">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -8611,7 +8610,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1">
+    <row r="211" spans="1:11">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -8640,7 +8639,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1">
+    <row r="212" spans="1:11">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -8663,7 +8662,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1">
+    <row r="213" spans="1:11">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -8683,7 +8682,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1">
+    <row r="214" spans="1:11">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -8706,7 +8705,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1">
+    <row r="215" spans="1:11">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1">
+    <row r="217" spans="1:11">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -8775,7 +8774,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1">
+    <row r="218" spans="1:11">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -8801,7 +8800,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1">
+    <row r="219" spans="1:11">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -8821,7 +8820,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1">
+    <row r="220" spans="1:11">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -8853,7 +8852,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1">
+    <row r="221" spans="1:11">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -8882,7 +8881,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1">
+    <row r="222" spans="1:11">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -8908,7 +8907,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1">
+    <row r="223" spans="1:11">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -8937,7 +8936,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1">
+    <row r="224" spans="1:11">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -8966,7 +8965,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1">
+    <row r="225" spans="1:11">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -8989,7 +8988,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1">
+    <row r="226" spans="1:11">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -9024,7 +9023,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1">
+    <row r="227" spans="1:11">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -9059,7 +9058,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1">
+    <row r="228" spans="1:11">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1">
+    <row r="229" spans="1:11">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1">
+    <row r="230" spans="1:11">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -9131,7 +9130,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1">
+    <row r="231" spans="1:11">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1">
+    <row r="232" spans="1:11">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -9189,7 +9188,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1">
+    <row r="233" spans="1:11">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -9218,7 +9217,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1">
+    <row r="234" spans="1:11">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -9241,7 +9240,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1">
+    <row r="235" spans="1:11">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -9261,7 +9260,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1">
+    <row r="236" spans="1:11">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1">
+    <row r="237" spans="1:11">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -9316,7 +9315,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1">
+    <row r="238" spans="1:11">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -9348,7 +9347,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1">
+    <row r="239" spans="1:11">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -9368,7 +9367,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1">
+    <row r="240" spans="1:11">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -9391,7 +9390,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1">
+    <row r="241" spans="1:11">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -9417,7 +9416,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1">
+    <row r="242" spans="1:11">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -9440,7 +9439,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1">
+    <row r="243" spans="1:11">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -9469,7 +9468,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1">
+    <row r="244" spans="1:11">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -9489,7 +9488,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1">
+    <row r="245" spans="1:11">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -9515,7 +9514,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1">
+    <row r="246" spans="1:11">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1">
+    <row r="247" spans="1:11">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -9558,7 +9557,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1">
+    <row r="248" spans="1:11">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -9578,7 +9577,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1">
+    <row r="249" spans="1:11">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -9601,7 +9600,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1">
+    <row r="250" spans="1:11">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -9624,7 +9623,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1">
+    <row r="251" spans="1:11">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -9650,7 +9649,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1">
+    <row r="252" spans="1:11">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1">
+    <row r="253" spans="1:11">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -9708,7 +9707,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1">
+    <row r="254" spans="1:11">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -9740,7 +9739,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1">
+    <row r="255" spans="1:11">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -9763,7 +9762,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1">
+    <row r="256" spans="1:11">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1">
+    <row r="257" spans="1:11">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -9812,7 +9811,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1">
+    <row r="258" spans="1:11">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -9832,7 +9831,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1">
+    <row r="259" spans="1:11">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -9861,7 +9860,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1">
+    <row r="260" spans="1:11">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -9884,7 +9883,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1">
+    <row r="261" spans="1:11">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -9904,7 +9903,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1">
+    <row r="262" spans="1:11">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -9924,7 +9923,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1">
+    <row r="263" spans="1:11">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -9944,7 +9943,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1">
+    <row r="264" spans="1:11">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -9967,7 +9966,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1">
+    <row r="265" spans="1:11">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -9993,7 +9992,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1">
+    <row r="266" spans="1:11">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -10013,7 +10012,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1">
+    <row r="267" spans="1:11">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -10042,7 +10041,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1">
+    <row r="268" spans="1:11">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -10074,7 +10073,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1">
+    <row r="269" spans="1:11">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -10094,7 +10093,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1">
+    <row r="270" spans="1:11">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -10117,7 +10116,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1">
+    <row r="271" spans="1:11">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -10143,7 +10142,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1">
+    <row r="272" spans="1:11">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -10172,7 +10171,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1">
+    <row r="273" spans="1:11">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -10204,7 +10203,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1">
+    <row r="274" spans="1:11">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -10227,7 +10226,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1">
+    <row r="275" spans="1:11">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -10253,7 +10252,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1">
+    <row r="276" spans="1:11">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -10276,7 +10275,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1">
+    <row r="277" spans="1:11">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -10299,7 +10298,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1">
+    <row r="278" spans="1:11">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -10325,7 +10324,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1">
+    <row r="279" spans="1:11">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -10360,7 +10359,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1">
+    <row r="280" spans="1:11">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1">
+    <row r="281" spans="1:11">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -10409,7 +10408,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1">
+    <row r="282" spans="1:11">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -10444,7 +10443,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1">
+    <row r="283" spans="1:11">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -10467,7 +10466,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1">
+    <row r="284" spans="1:11">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -10490,7 +10489,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1">
+    <row r="285" spans="1:11">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1">
+    <row r="286" spans="1:11">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -10539,7 +10538,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1">
+    <row r="287" spans="1:11">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -10562,7 +10561,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1">
+    <row r="288" spans="1:11">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -10591,7 +10590,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1">
+    <row r="289" spans="1:11">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -10614,7 +10613,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1">
+    <row r="290" spans="1:11">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -10637,7 +10636,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1">
+    <row r="291" spans="1:11">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -10663,7 +10662,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1">
+    <row r="292" spans="1:11">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -10692,7 +10691,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1">
+    <row r="293" spans="1:11">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -10712,7 +10711,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1">
+    <row r="294" spans="1:11">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -10732,7 +10731,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1">
+    <row r="295" spans="1:11">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -10749,7 +10748,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1">
+    <row r="296" spans="1:11">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -10772,7 +10771,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1">
+    <row r="297" spans="1:11">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -10801,7 +10800,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1">
+    <row r="298" spans="1:11">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -10827,7 +10826,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1">
+    <row r="299" spans="1:11">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -10856,7 +10855,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1">
+    <row r="300" spans="1:11">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -10882,7 +10881,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1">
+    <row r="301" spans="1:11">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -10905,7 +10904,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1">
+    <row r="302" spans="1:11">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -10928,7 +10927,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1">
+    <row r="303" spans="1:11">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -10951,7 +10950,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1">
+    <row r="304" spans="1:11">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1">
+    <row r="305" spans="1:11">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -11006,7 +11005,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1">
+    <row r="306" spans="1:11">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -11026,7 +11025,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1">
+    <row r="307" spans="1:11">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -11046,7 +11045,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1">
+    <row r="308" spans="1:11">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -11066,7 +11065,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1">
+    <row r="309" spans="1:11">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -11095,7 +11094,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1">
+    <row r="310" spans="1:11">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -11118,7 +11117,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1">
+    <row r="311" spans="1:11">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -11147,7 +11146,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1">
+    <row r="312" spans="1:11">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -11173,7 +11172,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1">
+    <row r="313" spans="1:11">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -11196,7 +11195,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1">
+    <row r="314" spans="1:11">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -11219,7 +11218,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1">
+    <row r="315" spans="1:11">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -11248,7 +11247,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1">
+    <row r="316" spans="1:11">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -11268,7 +11267,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1">
+    <row r="317" spans="1:11">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -11294,7 +11293,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1">
+    <row r="318" spans="1:11">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -11317,7 +11316,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1">
+    <row r="319" spans="1:11">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -11337,7 +11336,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1">
+    <row r="320" spans="1:11">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -11360,7 +11359,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1">
+    <row r="321" spans="1:11">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -11383,7 +11382,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1">
+    <row r="322" spans="1:11">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -11412,7 +11411,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1">
+    <row r="323" spans="1:11">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1">
+    <row r="324" spans="1:11">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -11461,7 +11460,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1">
+    <row r="325" spans="1:11">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -11484,7 +11483,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1">
+    <row r="326" spans="1:11">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -11513,7 +11512,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1">
+    <row r="327" spans="1:11">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -11539,7 +11538,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1">
+    <row r="328" spans="1:11">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -11565,7 +11564,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1">
+    <row r="329" spans="1:11">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -11585,7 +11584,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1">
+    <row r="330" spans="1:11">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -11605,7 +11604,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1">
+    <row r="331" spans="1:11">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -11622,7 +11621,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1">
+    <row r="332" spans="1:11">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -11645,7 +11644,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1">
+    <row r="333" spans="1:11">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -11674,7 +11673,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1">
+    <row r="334" spans="1:11">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -11697,7 +11696,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1">
+    <row r="335" spans="1:11">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -11720,7 +11719,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1">
+    <row r="336" spans="1:11">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -11743,7 +11742,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1">
+    <row r="337" spans="1:11">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -11769,7 +11768,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1">
+    <row r="338" spans="1:11">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -11789,7 +11788,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1">
+    <row r="339" spans="1:11">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -11818,7 +11817,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1">
+    <row r="340" spans="1:11">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -11847,7 +11846,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1">
+    <row r="341" spans="1:11">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -11870,7 +11869,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1">
+    <row r="342" spans="1:11">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -11899,7 +11898,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1">
+    <row r="343" spans="1:11">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -11925,7 +11924,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1">
+    <row r="344" spans="1:11">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -11954,7 +11953,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1">
+    <row r="345" spans="1:11">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -11971,7 +11970,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1">
+    <row r="346" spans="1:11">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -12000,7 +11999,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1">
+    <row r="347" spans="1:11">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -12023,7 +12022,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1">
+    <row r="348" spans="1:11">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -12049,7 +12048,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1">
+    <row r="349" spans="1:11">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -12081,7 +12080,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1">
+    <row r="350" spans="1:11">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -12104,7 +12103,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1">
+    <row r="351" spans="1:11">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -12127,7 +12126,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1">
+    <row r="352" spans="1:11">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -12150,7 +12149,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1">
+    <row r="353" spans="1:11">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -12176,7 +12175,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1">
+    <row r="354" spans="1:11">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -12196,7 +12195,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1">
+    <row r="355" spans="1:11">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1">
+    <row r="356" spans="1:11">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -12239,7 +12238,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1">
+    <row r="357" spans="1:11">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -12265,7 +12264,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1">
+    <row r="358" spans="1:11">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -12288,7 +12287,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1">
+    <row r="359" spans="1:11">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -12311,7 +12310,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1">
+    <row r="360" spans="1:11">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -12334,7 +12333,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1">
+    <row r="361" spans="1:11">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -12357,7 +12356,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1">
+    <row r="362" spans="1:11">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -12380,7 +12379,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1">
+    <row r="363" spans="1:11">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -12403,7 +12402,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1">
+    <row r="364" spans="1:11">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -12426,7 +12425,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1">
+    <row r="365" spans="1:11">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -12449,7 +12448,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1">
+    <row r="366" spans="1:11">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -12475,7 +12474,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1">
+    <row r="367" spans="1:11">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -12495,7 +12494,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1">
+    <row r="368" spans="1:11">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -12512,7 +12511,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1">
+    <row r="369" spans="1:11">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -12541,7 +12540,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1">
+    <row r="370" spans="1:11">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -12561,7 +12560,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1">
+    <row r="371" spans="1:11">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -12581,7 +12580,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1">
+    <row r="372" spans="1:11">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -12601,7 +12600,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1">
+    <row r="373" spans="1:11">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -12633,7 +12632,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1">
+    <row r="374" spans="1:11">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -12653,7 +12652,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1">
+    <row r="375" spans="1:11">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -12673,7 +12672,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1">
+    <row r="376" spans="1:11">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -12693,7 +12692,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1">
+    <row r="377" spans="1:11">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -12713,7 +12712,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1">
+    <row r="378" spans="1:11">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -12733,7 +12732,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1">
+    <row r="379" spans="1:11">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -12753,7 +12752,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1">
+    <row r="380" spans="1:11">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -12773,7 +12772,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1">
+    <row r="381" spans="1:11">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -12793,7 +12792,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1">
+    <row r="382" spans="1:11">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -12813,7 +12812,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1">
+    <row r="383" spans="1:11">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -12833,7 +12832,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1">
+    <row r="384" spans="1:11">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -12853,7 +12852,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1">
+    <row r="385" spans="1:11">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -12873,7 +12872,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1">
+    <row r="386" spans="1:11">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -12893,7 +12892,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1">
+    <row r="387" spans="1:11">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -12913,7 +12912,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1">
+    <row r="388" spans="1:11">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -12933,7 +12932,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1">
+    <row r="389" spans="1:11">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -12953,7 +12952,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1">
+    <row r="390" spans="1:11">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -12973,7 +12972,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1">
+    <row r="391" spans="1:11">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -12993,7 +12992,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1">
+    <row r="392" spans="1:11">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -13013,7 +13012,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1">
+    <row r="393" spans="1:11">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -13033,7 +13032,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1">
+    <row r="394" spans="1:11">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -13053,7 +13052,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1">
+    <row r="395" spans="1:11">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -13073,7 +13072,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1">
+    <row r="396" spans="1:11">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -13093,7 +13092,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1">
+    <row r="397" spans="1:11">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -13113,7 +13112,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1">
+    <row r="398" spans="1:11">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -13133,7 +13132,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1">
+    <row r="399" spans="1:11">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -13153,7 +13152,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1">
+    <row r="400" spans="1:11">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -13173,7 +13172,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1">
+    <row r="401" spans="1:11">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -13193,7 +13192,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1">
+    <row r="402" spans="1:11">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -13210,7 +13209,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1">
+    <row r="403" spans="1:11">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -13227,7 +13226,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1">
+    <row r="404" spans="1:11">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -13244,7 +13243,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1">
+    <row r="405" spans="1:11">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -13261,7 +13260,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1">
+    <row r="406" spans="1:11">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -13278,7 +13277,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1">
+    <row r="407" spans="1:11">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -13298,7 +13297,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1">
+    <row r="408" spans="1:11">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -13315,7 +13314,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1">
+    <row r="409" spans="1:11">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -13332,7 +13331,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1">
+    <row r="410" spans="1:11">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -13352,7 +13351,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1">
+    <row r="411" spans="1:11">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -13378,7 +13377,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1">
+    <row r="412" spans="1:11">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -13404,7 +13403,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1">
+    <row r="413" spans="1:11">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -13424,7 +13423,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1">
+    <row r="414" spans="1:11">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -13447,7 +13446,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1">
+    <row r="415" spans="1:11">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -13467,7 +13466,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1">
+    <row r="416" spans="1:11">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -13487,7 +13486,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1">
+    <row r="417" spans="1:11">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -13507,7 +13506,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1">
+    <row r="418" spans="1:11">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -13527,7 +13526,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1">
+    <row r="419" spans="1:11">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -13547,7 +13546,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1">
+    <row r="420" spans="1:11">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -13570,7 +13569,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1">
+    <row r="421" spans="1:11">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -13590,7 +13589,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1">
+    <row r="422" spans="1:11">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -13610,7 +13609,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1">
+    <row r="423" spans="1:11">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -13633,7 +13632,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="424" spans="1:11" hidden="1">
+    <row r="424" spans="1:11">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -13653,7 +13652,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="425" spans="1:11" hidden="1">
+    <row r="425" spans="1:11">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -13673,7 +13672,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1">
+    <row r="426" spans="1:11">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -13699,7 +13698,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="427" spans="1:11" hidden="1">
+    <row r="427" spans="1:11">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -13719,7 +13718,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1">
+    <row r="428" spans="1:11">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -13739,7 +13738,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="429" spans="1:11" hidden="1">
+    <row r="429" spans="1:11">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -13759,7 +13758,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="430" spans="1:11" hidden="1">
+    <row r="430" spans="1:11">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -13779,7 +13778,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="431" spans="1:11" hidden="1">
+    <row r="431" spans="1:11">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -13799,7 +13798,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="432" spans="1:11" hidden="1">
+    <row r="432" spans="1:11">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -13819,7 +13818,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="433" spans="1:11" hidden="1">
+    <row r="433" spans="1:11">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -13839,7 +13838,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="434" spans="1:11" hidden="1">
+    <row r="434" spans="1:11">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -13859,7 +13858,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="435" spans="1:11" hidden="1">
+    <row r="435" spans="1:11">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -13879,7 +13878,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="436" spans="1:11" hidden="1">
+    <row r="436" spans="1:11">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -13905,7 +13904,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="437" spans="1:11" hidden="1">
+    <row r="437" spans="1:11">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -13928,7 +13927,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="438" spans="1:11" hidden="1">
+    <row r="438" spans="1:11">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -13948,7 +13947,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="439" spans="1:11" hidden="1">
+    <row r="439" spans="1:11">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -13977,7 +13976,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="440" spans="1:11" hidden="1">
+    <row r="440" spans="1:11">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -13994,7 +13993,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="441" spans="1:11" hidden="1">
+    <row r="441" spans="1:11">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -14017,7 +14016,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="442" spans="1:11" hidden="1">
+    <row r="442" spans="1:11">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -14037,7 +14036,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="443" spans="1:11" hidden="1">
+    <row r="443" spans="1:11">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -14060,7 +14059,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="444" spans="1:11" hidden="1">
+    <row r="444" spans="1:11">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -14083,7 +14082,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="445" spans="1:11" hidden="1">
+    <row r="445" spans="1:11">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -14106,7 +14105,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="446" spans="1:11" hidden="1">
+    <row r="446" spans="1:11">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -14126,7 +14125,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="447" spans="1:11" hidden="1">
+    <row r="447" spans="1:11">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -14149,7 +14148,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="448" spans="1:11" hidden="1">
+    <row r="448" spans="1:11">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -14172,7 +14171,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1">
+    <row r="449" spans="1:11">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -14198,7 +14197,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="450" spans="1:11" hidden="1">
+    <row r="450" spans="1:11">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -14218,7 +14217,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="451" spans="1:11" hidden="1">
+    <row r="451" spans="1:11">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -14238,7 +14237,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="452" spans="1:11" hidden="1">
+    <row r="452" spans="1:11">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -14264,7 +14263,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1">
+    <row r="453" spans="1:11">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -14293,7 +14292,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1">
+    <row r="454" spans="1:11">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -14322,7 +14321,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="455" spans="1:11" hidden="1">
+    <row r="455" spans="1:11">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -14345,7 +14344,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="456" spans="1:11" hidden="1">
+    <row r="456" spans="1:11">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -14371,7 +14370,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="457" spans="1:11" hidden="1">
+    <row r="457" spans="1:11">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -14400,7 +14399,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="458" spans="1:11" hidden="1">
+    <row r="458" spans="1:11">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -14429,7 +14428,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="459" spans="1:11" hidden="1">
+    <row r="459" spans="1:11">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -14455,7 +14454,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1">
+    <row r="460" spans="1:11">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -14484,7 +14483,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="461" spans="1:11" hidden="1">
+    <row r="461" spans="1:11">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -14513,7 +14512,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="462" spans="1:11" hidden="1">
+    <row r="462" spans="1:11">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -14542,7 +14541,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="463" spans="1:11" hidden="1">
+    <row r="463" spans="1:11">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -14571,7 +14570,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="464" spans="1:11" hidden="1">
+    <row r="464" spans="1:11">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -14600,7 +14599,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="465" spans="1:11" hidden="1">
+    <row r="465" spans="1:11">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -14629,7 +14628,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1">
+    <row r="466" spans="1:11">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -14655,7 +14654,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="467" spans="1:11" hidden="1">
+    <row r="467" spans="1:11">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -14675,7 +14674,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="468" spans="1:11" hidden="1">
+    <row r="468" spans="1:11">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -14698,7 +14697,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="469" spans="1:11" hidden="1">
+    <row r="469" spans="1:11">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -14718,7 +14717,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="470" spans="1:11" hidden="1">
+    <row r="470" spans="1:11">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -14741,7 +14740,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="471" spans="1:11" hidden="1">
+    <row r="471" spans="1:11">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -14761,7 +14760,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1">
+    <row r="472" spans="1:11">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -14784,7 +14783,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1">
+    <row r="473" spans="1:11">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -14804,7 +14803,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="474" spans="1:11" hidden="1">
+    <row r="474" spans="1:11">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -14824,7 +14823,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="475" spans="1:11" hidden="1">
+    <row r="475" spans="1:11">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -14859,7 +14858,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="476" spans="1:11" hidden="1">
+    <row r="476" spans="1:11">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -14879,7 +14878,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="477" spans="1:11" hidden="1">
+    <row r="477" spans="1:11">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -14899,7 +14898,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="478" spans="1:11" hidden="1">
+    <row r="478" spans="1:11">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -14920,11 +14919,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K478" xr:uid="{92C8177E-62D6-4EB9-9C53-CE7EDFBA1310}">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:K478" xr:uid="{92C8177E-62D6-4EB9-9C53-CE7EDFBA1310}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>